--- a/참고자료/학생정보테이블.xlsx
+++ b/참고자료/학생정보테이블.xlsx
@@ -9,11 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보 (2)" sheetId="1" r:id="rId1"/>
     <sheet name="학생정보 (3)" sheetId="2" r:id="rId2"/>
+    <sheet name="학생정보 (4)" sheetId="3" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="5" r:id="rId4"/>
+    <sheet name="Sheet2" sheetId="4" r:id="rId5"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1011" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="431">
   <si>
     <t>국어국문</t>
   </si>
@@ -1303,6 +1306,82 @@
   </si>
   <si>
     <t>학과</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>010-5225-6136</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과코드</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>CODE</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과코드</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>법학</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOO2</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOO3</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOO4</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DOO5</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터공학</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>관광학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D001</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D002</t>
+  </si>
+  <si>
+    <t>D003</t>
+  </si>
+  <si>
+    <t>D004</t>
+  </si>
+  <si>
+    <t>D005</t>
+  </si>
+  <si>
+    <t>국어국문</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>법학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>전자공학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터공학</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1310,7 +1389,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1330,6 +1409,13 @@
       <sz val="8"/>
       <name val="맑은 고딕"/>
       <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
@@ -1357,12 +1443,18 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -1695,7 +1787,7 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E33" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -1716,7 +1808,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1758,7 +1850,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1821,7 +1913,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -1842,7 +1934,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -1863,7 +1955,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -1884,7 +1976,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -1905,7 +1997,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -1947,7 +2039,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -1968,7 +2060,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -1989,7 +2081,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -2010,7 +2102,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -2031,7 +2123,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -2052,7 +2144,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -2073,7 +2165,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -2094,7 +2186,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -2115,7 +2207,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
@@ -2157,7 +2249,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
@@ -2241,7 +2333,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -2283,7 +2375,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -2346,7 +2438,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -2367,7 +2459,7 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -2388,7 +2480,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
@@ -2409,7 +2501,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -2451,7 +2543,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -2472,7 +2564,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -2493,7 +2585,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -2514,7 +2606,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -2556,7 +2648,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -2577,7 +2669,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -2598,7 +2690,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -2619,7 +2711,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -2640,7 +2732,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -2661,7 +2753,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
@@ -2682,7 +2774,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -2703,7 +2795,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -2787,7 +2879,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -2808,7 +2900,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -2829,7 +2921,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -2871,7 +2963,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
@@ -2892,7 +2984,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -2913,7 +3005,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -2934,7 +3026,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -2955,7 +3047,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -2976,7 +3068,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -2997,7 +3089,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -3018,7 +3110,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
@@ -3060,7 +3152,7 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
@@ -3081,7 +3173,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -3102,7 +3194,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -3123,7 +3215,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -3144,7 +3236,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
@@ -3165,7 +3257,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
@@ -3207,7 +3299,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -3228,7 +3320,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -3249,7 +3341,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
@@ -3291,7 +3383,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -3312,7 +3404,7 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
@@ -3333,7 +3425,7 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
@@ -3354,7 +3446,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
@@ -3375,7 +3467,7 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
@@ -3396,7 +3488,7 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
@@ -3417,7 +3509,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -3438,7 +3530,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
@@ -3459,7 +3551,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -3480,7 +3572,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -3564,7 +3656,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -3585,7 +3677,7 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -3606,7 +3698,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -3648,7 +3740,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -3669,7 +3761,7 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -3690,7 +3782,7 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -3711,7 +3803,7 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -3753,7 +3845,7 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -3774,7 +3866,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -3791,8 +3883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3832,16 +3924,15 @@
       <c r="B2" t="s">
         <v>403</v>
       </c>
-      <c r="C2" t="e">
-        <f ca="1">"010"&amp;TEXT(RANDBETWEEN(1000000,999999),"0000"-"0000")</f>
-        <v>#NUM!</v>
+      <c r="C2" t="s">
+        <v>411</v>
       </c>
       <c r="D2" s="1" t="s">
         <v>401</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E65" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -3862,7 +3953,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -3883,7 +3974,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -3904,7 +3995,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -3925,7 +4016,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -3967,7 +4058,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -3988,7 +4079,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -4009,7 +4100,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -4072,7 +4163,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -4093,7 +4184,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -4114,7 +4205,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -4135,7 +4226,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -4156,7 +4247,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -4177,7 +4268,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -4198,7 +4289,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -4240,7 +4331,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -4261,7 +4352,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
@@ -4282,7 +4373,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -4303,7 +4394,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
@@ -4345,7 +4436,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -4366,7 +4457,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -4387,7 +4478,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -4408,7 +4499,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -4429,7 +4520,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -4450,7 +4541,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -4492,7 +4583,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -4555,7 +4646,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -4597,7 +4688,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -4618,7 +4709,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -4639,7 +4730,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -4660,7 +4751,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -4681,7 +4772,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -4702,7 +4793,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -4723,7 +4814,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -4744,7 +4835,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -4786,7 +4877,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -4828,7 +4919,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -4849,7 +4940,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -4870,7 +4961,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -4891,7 +4982,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
@@ -4912,7 +5003,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -4954,7 +5045,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -4996,7 +5087,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -5017,7 +5108,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
@@ -5038,7 +5129,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -5059,7 +5150,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -5080,7 +5171,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -5101,7 +5192,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -5122,7 +5213,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -5143,7 +5234,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -5185,7 +5276,7 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -5206,7 +5297,7 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
@@ -5269,7 +5360,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -5311,7 +5402,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
@@ -5332,7 +5423,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
@@ -5353,7 +5444,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -5374,7 +5465,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -5395,7 +5486,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
@@ -5437,7 +5528,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -5479,7 +5570,7 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
@@ -5500,7 +5591,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
@@ -5521,7 +5612,7 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
@@ -5563,7 +5654,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -5584,7 +5675,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
@@ -5605,7 +5696,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -5626,7 +5717,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -5647,7 +5738,7 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
@@ -5668,7 +5759,7 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
@@ -5689,7 +5780,7 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
@@ -5710,7 +5801,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -5731,7 +5822,7 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -5752,7 +5843,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -5773,7 +5864,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -5794,7 +5885,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -5815,7 +5906,7 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -5857,7 +5948,7 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -5899,7 +5990,7 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -5920,7 +6011,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -5931,4 +6022,2670 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G101"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="J90" sqref="J90"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.25" customWidth="1"/>
+    <col min="2" max="2" width="9" customWidth="1"/>
+    <col min="3" max="3" width="21.375" customWidth="1"/>
+    <col min="4" max="4" width="48.875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9" customWidth="1"/>
+    <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B1" t="s">
+        <v>408</v>
+      </c>
+      <c r="C1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D1" t="s">
+        <v>406</v>
+      </c>
+      <c r="E1" t="s">
+        <v>405</v>
+      </c>
+      <c r="F1" t="s">
+        <v>410</v>
+      </c>
+      <c r="G1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>404</v>
+      </c>
+      <c r="B2" t="s">
+        <v>403</v>
+      </c>
+      <c r="C2" t="s">
+        <v>411</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="E2">
+        <f t="shared" ref="E2:E65" ca="1" si="0">RANDBETWEEN(1,4)</f>
+        <v>3</v>
+      </c>
+      <c r="F2" t="s">
+        <v>39</v>
+      </c>
+      <c r="G2" t="str">
+        <f>VLOOKUP(F2,Sheet3!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>400</v>
+      </c>
+      <c r="B3" t="s">
+        <v>399</v>
+      </c>
+      <c r="C3" t="s">
+        <v>398</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F3" t="s">
+        <v>10</v>
+      </c>
+      <c r="G3" t="str">
+        <f>VLOOKUP(F3,Sheet3!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B4" t="s">
+        <v>395</v>
+      </c>
+      <c r="C4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E4">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" t="str">
+        <f>VLOOKUP(F4,Sheet3!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="E5">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F5" t="s">
+        <v>39</v>
+      </c>
+      <c r="G5" t="str">
+        <f>VLOOKUP(F5,Sheet3!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B6" t="s">
+        <v>387</v>
+      </c>
+      <c r="C6" t="s">
+        <v>386</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="E6">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" t="str">
+        <f>VLOOKUP(F6,Sheet3!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B7" t="s">
+        <v>383</v>
+      </c>
+      <c r="C7" t="s">
+        <v>382</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="E7">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G7" t="str">
+        <f>VLOOKUP(F7,Sheet3!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>380</v>
+      </c>
+      <c r="B8" t="s">
+        <v>379</v>
+      </c>
+      <c r="C8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" t="str">
+        <f>VLOOKUP(F8,Sheet3!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>376</v>
+      </c>
+      <c r="B9" t="s">
+        <v>375</v>
+      </c>
+      <c r="C9" t="s">
+        <v>374</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>373</v>
+      </c>
+      <c r="E9">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F9" t="s">
+        <v>48</v>
+      </c>
+      <c r="G9" t="str">
+        <f>VLOOKUP(F9,Sheet3!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>372</v>
+      </c>
+      <c r="B10" t="s">
+        <v>371</v>
+      </c>
+      <c r="C10" t="s">
+        <v>370</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="E10">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F10" t="s">
+        <v>10</v>
+      </c>
+      <c r="G10" t="str">
+        <f>VLOOKUP(F10,Sheet3!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>368</v>
+      </c>
+      <c r="B11" t="s">
+        <v>367</v>
+      </c>
+      <c r="C11" t="s">
+        <v>366</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>365</v>
+      </c>
+      <c r="E11">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F11" t="s">
+        <v>10</v>
+      </c>
+      <c r="G11" t="str">
+        <f>VLOOKUP(F11,Sheet3!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>364</v>
+      </c>
+      <c r="B12" t="s">
+        <v>363</v>
+      </c>
+      <c r="C12" t="s">
+        <v>362</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>361</v>
+      </c>
+      <c r="E12">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F12" t="s">
+        <v>10</v>
+      </c>
+      <c r="G12" t="str">
+        <f>VLOOKUP(F12,Sheet3!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>360</v>
+      </c>
+      <c r="B13" t="s">
+        <v>359</v>
+      </c>
+      <c r="C13" t="s">
+        <v>358</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="E13">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F13" t="s">
+        <v>48</v>
+      </c>
+      <c r="G13" t="str">
+        <f>VLOOKUP(F13,Sheet3!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="B14" t="s">
+        <v>355</v>
+      </c>
+      <c r="C14" t="s">
+        <v>354</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>353</v>
+      </c>
+      <c r="E14">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F14" t="s">
+        <v>39</v>
+      </c>
+      <c r="G14" t="str">
+        <f>VLOOKUP(F14,Sheet3!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="B15" t="s">
+        <v>351</v>
+      </c>
+      <c r="C15" t="s">
+        <v>350</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>349</v>
+      </c>
+      <c r="E15">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G15" t="str">
+        <f>VLOOKUP(F15,Sheet3!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>348</v>
+      </c>
+      <c r="B16" t="s">
+        <v>347</v>
+      </c>
+      <c r="C16" t="s">
+        <v>346</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>345</v>
+      </c>
+      <c r="E16">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F16" t="s">
+        <v>48</v>
+      </c>
+      <c r="G16" t="str">
+        <f>VLOOKUP(F16,Sheet3!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>344</v>
+      </c>
+      <c r="B17" t="s">
+        <v>343</v>
+      </c>
+      <c r="C17" t="s">
+        <v>342</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>341</v>
+      </c>
+      <c r="E17">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F17" t="s">
+        <v>39</v>
+      </c>
+      <c r="G17" t="str">
+        <f>VLOOKUP(F17,Sheet3!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="B18" t="s">
+        <v>339</v>
+      </c>
+      <c r="C18" t="s">
+        <v>338</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>337</v>
+      </c>
+      <c r="E18">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F18" t="s">
+        <v>48</v>
+      </c>
+      <c r="G18" t="str">
+        <f>VLOOKUP(F18,Sheet3!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="B19" t="s">
+        <v>335</v>
+      </c>
+      <c r="C19" t="s">
+        <v>334</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>333</v>
+      </c>
+      <c r="E19">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F19" t="s">
+        <v>10</v>
+      </c>
+      <c r="G19" t="str">
+        <f>VLOOKUP(F19,Sheet3!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="B20" t="s">
+        <v>331</v>
+      </c>
+      <c r="C20" t="s">
+        <v>330</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>329</v>
+      </c>
+      <c r="E20">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F20" t="s">
+        <v>10</v>
+      </c>
+      <c r="G20" t="str">
+        <f>VLOOKUP(F20,Sheet3!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B21" t="s">
+        <v>327</v>
+      </c>
+      <c r="C21" t="s">
+        <v>326</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="E21">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>10</v>
+      </c>
+      <c r="G21" t="str">
+        <f>VLOOKUP(F21,Sheet3!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>324</v>
+      </c>
+      <c r="B22" t="s">
+        <v>323</v>
+      </c>
+      <c r="C22" t="s">
+        <v>322</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>321</v>
+      </c>
+      <c r="E22">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F22" t="s">
+        <v>48</v>
+      </c>
+      <c r="G22" t="str">
+        <f>VLOOKUP(F22,Sheet3!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="B23" t="s">
+        <v>319</v>
+      </c>
+      <c r="C23" t="s">
+        <v>318</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>317</v>
+      </c>
+      <c r="E23">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F23" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" t="str">
+        <f>VLOOKUP(F23,Sheet3!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>316</v>
+      </c>
+      <c r="B24" t="s">
+        <v>315</v>
+      </c>
+      <c r="C24" t="s">
+        <v>314</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>313</v>
+      </c>
+      <c r="E24">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F24" t="s">
+        <v>48</v>
+      </c>
+      <c r="G24" t="str">
+        <f>VLOOKUP(F24,Sheet3!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="B25" t="s">
+        <v>311</v>
+      </c>
+      <c r="C25" t="s">
+        <v>310</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="E25">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F25" t="s">
+        <v>48</v>
+      </c>
+      <c r="G25" t="str">
+        <f>VLOOKUP(F25,Sheet3!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="B26" t="s">
+        <v>307</v>
+      </c>
+      <c r="C26" t="s">
+        <v>306</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F26" t="s">
+        <v>39</v>
+      </c>
+      <c r="G26" t="str">
+        <f>VLOOKUP(F26,Sheet3!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>304</v>
+      </c>
+      <c r="B27" t="s">
+        <v>303</v>
+      </c>
+      <c r="C27" t="s">
+        <v>302</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="E27">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F27" t="s">
+        <v>39</v>
+      </c>
+      <c r="G27" t="str">
+        <f>VLOOKUP(F27,Sheet3!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="B28" t="s">
+        <v>299</v>
+      </c>
+      <c r="C28" t="s">
+        <v>298</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="E28">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F28" t="s">
+        <v>0</v>
+      </c>
+      <c r="G28" t="str">
+        <f>VLOOKUP(F28,Sheet3!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="B29" t="s">
+        <v>295</v>
+      </c>
+      <c r="C29" t="s">
+        <v>294</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="E29">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F29" t="s">
+        <v>5</v>
+      </c>
+      <c r="G29" t="str">
+        <f>VLOOKUP(F29,Sheet3!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>292</v>
+      </c>
+      <c r="B30" t="s">
+        <v>291</v>
+      </c>
+      <c r="C30" t="s">
+        <v>290</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="E30">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F30" t="s">
+        <v>5</v>
+      </c>
+      <c r="G30" t="str">
+        <f>VLOOKUP(F30,Sheet3!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="B31" t="s">
+        <v>287</v>
+      </c>
+      <c r="C31" t="s">
+        <v>286</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>285</v>
+      </c>
+      <c r="E31">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F31" t="s">
+        <v>5</v>
+      </c>
+      <c r="G31" t="str">
+        <f>VLOOKUP(F31,Sheet3!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B32" t="s">
+        <v>283</v>
+      </c>
+      <c r="C32" t="s">
+        <v>282</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="E32">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F32" t="s">
+        <v>0</v>
+      </c>
+      <c r="G32" t="str">
+        <f>VLOOKUP(F32,Sheet3!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B33" t="s">
+        <v>279</v>
+      </c>
+      <c r="C33" t="s">
+        <v>278</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="E33">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F33" t="s">
+        <v>10</v>
+      </c>
+      <c r="G33" t="str">
+        <f>VLOOKUP(F33,Sheet3!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B34" t="s">
+        <v>275</v>
+      </c>
+      <c r="C34" t="s">
+        <v>274</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="E34">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F34" t="s">
+        <v>0</v>
+      </c>
+      <c r="G34" t="str">
+        <f>VLOOKUP(F34,Sheet3!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B35" t="s">
+        <v>271</v>
+      </c>
+      <c r="C35" t="s">
+        <v>270</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="E35">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F35" t="s">
+        <v>48</v>
+      </c>
+      <c r="G35" t="str">
+        <f>VLOOKUP(F35,Sheet3!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B36" t="s">
+        <v>267</v>
+      </c>
+      <c r="C36" t="s">
+        <v>266</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="E36">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F36" t="s">
+        <v>10</v>
+      </c>
+      <c r="G36" t="str">
+        <f>VLOOKUP(F36,Sheet3!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B37" t="s">
+        <v>263</v>
+      </c>
+      <c r="C37" t="s">
+        <v>262</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="E37">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F37" t="s">
+        <v>0</v>
+      </c>
+      <c r="G37" t="str">
+        <f>VLOOKUP(F37,Sheet3!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B38" t="s">
+        <v>259</v>
+      </c>
+      <c r="C38" t="s">
+        <v>258</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="E38">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F38" t="s">
+        <v>5</v>
+      </c>
+      <c r="G38" t="str">
+        <f>VLOOKUP(F38,Sheet3!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B39" t="s">
+        <v>255</v>
+      </c>
+      <c r="C39" t="s">
+        <v>254</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="E39">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F39" t="s">
+        <v>0</v>
+      </c>
+      <c r="G39" t="str">
+        <f>VLOOKUP(F39,Sheet3!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B40" t="s">
+        <v>251</v>
+      </c>
+      <c r="C40" t="s">
+        <v>250</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="E40">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F40" t="s">
+        <v>48</v>
+      </c>
+      <c r="G40" t="str">
+        <f>VLOOKUP(F40,Sheet3!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B41" t="s">
+        <v>247</v>
+      </c>
+      <c r="C41" t="s">
+        <v>246</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="E41">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F41" t="s">
+        <v>39</v>
+      </c>
+      <c r="G41" t="str">
+        <f>VLOOKUP(F41,Sheet3!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B42" t="s">
+        <v>243</v>
+      </c>
+      <c r="C42" t="s">
+        <v>242</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="E42">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F42" t="s">
+        <v>10</v>
+      </c>
+      <c r="G42" t="str">
+        <f>VLOOKUP(F42,Sheet3!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B43" t="s">
+        <v>239</v>
+      </c>
+      <c r="C43" t="s">
+        <v>238</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>0</v>
+      </c>
+      <c r="G43" t="str">
+        <f>VLOOKUP(F43,Sheet3!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B44" t="s">
+        <v>235</v>
+      </c>
+      <c r="C44" t="s">
+        <v>234</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="E44">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F44" t="s">
+        <v>0</v>
+      </c>
+      <c r="G44" t="str">
+        <f>VLOOKUP(F44,Sheet3!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B45" t="s">
+        <v>231</v>
+      </c>
+      <c r="C45" t="s">
+        <v>230</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="E45">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F45" t="s">
+        <v>10</v>
+      </c>
+      <c r="G45" t="str">
+        <f>VLOOKUP(F45,Sheet3!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B46" t="s">
+        <v>227</v>
+      </c>
+      <c r="C46" t="s">
+        <v>226</v>
+      </c>
+      <c r="D46" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="E46">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F46" t="s">
+        <v>39</v>
+      </c>
+      <c r="G46" t="str">
+        <f>VLOOKUP(F46,Sheet3!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B47" t="s">
+        <v>223</v>
+      </c>
+      <c r="C47" t="s">
+        <v>222</v>
+      </c>
+      <c r="D47" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="E47">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F47" t="s">
+        <v>5</v>
+      </c>
+      <c r="G47" t="str">
+        <f>VLOOKUP(F47,Sheet3!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B48" t="s">
+        <v>219</v>
+      </c>
+      <c r="C48" t="s">
+        <v>218</v>
+      </c>
+      <c r="D48" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="E48">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F48" t="s">
+        <v>39</v>
+      </c>
+      <c r="G48" t="str">
+        <f>VLOOKUP(F48,Sheet3!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B49" t="s">
+        <v>215</v>
+      </c>
+      <c r="C49" t="s">
+        <v>214</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="E49">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G49" t="str">
+        <f>VLOOKUP(F49,Sheet3!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B50" t="s">
+        <v>211</v>
+      </c>
+      <c r="C50" t="s">
+        <v>210</v>
+      </c>
+      <c r="D50" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E50">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F50" t="s">
+        <v>0</v>
+      </c>
+      <c r="G50" t="str">
+        <f>VLOOKUP(F50,Sheet3!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B51" t="s">
+        <v>207</v>
+      </c>
+      <c r="C51" t="s">
+        <v>206</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="E51">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F51" t="s">
+        <v>10</v>
+      </c>
+      <c r="G51" t="str">
+        <f>VLOOKUP(F51,Sheet3!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B52" t="s">
+        <v>203</v>
+      </c>
+      <c r="C52" t="s">
+        <v>202</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="E52">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F52" t="s">
+        <v>48</v>
+      </c>
+      <c r="G52" t="str">
+        <f>VLOOKUP(F52,Sheet3!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B53" t="s">
+        <v>199</v>
+      </c>
+      <c r="C53" t="s">
+        <v>198</v>
+      </c>
+      <c r="D53" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="E53">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F53" t="s">
+        <v>10</v>
+      </c>
+      <c r="G53" t="str">
+        <f>VLOOKUP(F53,Sheet3!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B54" t="s">
+        <v>195</v>
+      </c>
+      <c r="C54" t="s">
+        <v>194</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="E54">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F54" t="s">
+        <v>39</v>
+      </c>
+      <c r="G54" t="str">
+        <f>VLOOKUP(F54,Sheet3!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B55" t="s">
+        <v>191</v>
+      </c>
+      <c r="C55" t="s">
+        <v>190</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="E55">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F55" t="s">
+        <v>10</v>
+      </c>
+      <c r="G55" t="str">
+        <f>VLOOKUP(F55,Sheet3!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B56" t="s">
+        <v>187</v>
+      </c>
+      <c r="C56" t="s">
+        <v>186</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="E56">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F56" t="s">
+        <v>10</v>
+      </c>
+      <c r="G56" t="str">
+        <f>VLOOKUP(F56,Sheet3!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B57" t="s">
+        <v>183</v>
+      </c>
+      <c r="C57" t="s">
+        <v>182</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="E57">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F57" t="s">
+        <v>48</v>
+      </c>
+      <c r="G57" t="str">
+        <f>VLOOKUP(F57,Sheet3!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B58" t="s">
+        <v>179</v>
+      </c>
+      <c r="C58" t="s">
+        <v>178</v>
+      </c>
+      <c r="D58" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="E58">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F58" t="s">
+        <v>48</v>
+      </c>
+      <c r="G58" t="str">
+        <f>VLOOKUP(F58,Sheet3!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B59" t="s">
+        <v>175</v>
+      </c>
+      <c r="C59" t="s">
+        <v>174</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="E59">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F59" t="s">
+        <v>39</v>
+      </c>
+      <c r="G59" t="str">
+        <f>VLOOKUP(F59,Sheet3!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B60" t="s">
+        <v>171</v>
+      </c>
+      <c r="C60" t="s">
+        <v>170</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E60">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F60" t="s">
+        <v>5</v>
+      </c>
+      <c r="G60" t="str">
+        <f>VLOOKUP(F60,Sheet3!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>168</v>
+      </c>
+      <c r="B61" t="s">
+        <v>167</v>
+      </c>
+      <c r="C61" t="s">
+        <v>166</v>
+      </c>
+      <c r="D61" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E61">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F61" t="s">
+        <v>0</v>
+      </c>
+      <c r="G61" t="str">
+        <f>VLOOKUP(F61,Sheet3!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B62" t="s">
+        <v>163</v>
+      </c>
+      <c r="C62" t="s">
+        <v>162</v>
+      </c>
+      <c r="D62" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E62">
+        <f t="shared" ca="1" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F62" t="s">
+        <v>39</v>
+      </c>
+      <c r="G62" t="str">
+        <f>VLOOKUP(F62,Sheet3!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>160</v>
+      </c>
+      <c r="B63" t="s">
+        <v>159</v>
+      </c>
+      <c r="C63" t="s">
+        <v>158</v>
+      </c>
+      <c r="D63" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="E63">
+        <f t="shared" ca="1" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="F63" t="s">
+        <v>5</v>
+      </c>
+      <c r="G63" t="str">
+        <f>VLOOKUP(F63,Sheet3!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="B64" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" t="s">
+        <v>154</v>
+      </c>
+      <c r="D64" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E64">
+        <f t="shared" ca="1" si="0"/>
+        <v>2</v>
+      </c>
+      <c r="F64" t="s">
+        <v>0</v>
+      </c>
+      <c r="G64" t="str">
+        <f>VLOOKUP(F64,Sheet3!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="B65" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" t="s">
+        <v>150</v>
+      </c>
+      <c r="D65" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E65">
+        <f t="shared" ca="1" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="F65" t="s">
+        <v>48</v>
+      </c>
+      <c r="G65" t="str">
+        <f>VLOOKUP(F65,Sheet3!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="B66" t="s">
+        <v>147</v>
+      </c>
+      <c r="C66" t="s">
+        <v>146</v>
+      </c>
+      <c r="D66" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="E66">
+        <f t="shared" ref="E66:E101" ca="1" si="1">RANDBETWEEN(1,4)</f>
+        <v>3</v>
+      </c>
+      <c r="F66" t="s">
+        <v>5</v>
+      </c>
+      <c r="G66" t="str">
+        <f>VLOOKUP(F66,Sheet3!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>144</v>
+      </c>
+      <c r="B67" t="s">
+        <v>143</v>
+      </c>
+      <c r="C67" t="s">
+        <v>142</v>
+      </c>
+      <c r="D67" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E67">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F67" t="s">
+        <v>48</v>
+      </c>
+      <c r="G67" t="str">
+        <f>VLOOKUP(F67,Sheet3!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="B68" t="s">
+        <v>139</v>
+      </c>
+      <c r="C68" t="s">
+        <v>138</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="E68">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F68" t="s">
+        <v>10</v>
+      </c>
+      <c r="G68" t="str">
+        <f>VLOOKUP(F68,Sheet3!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="B69" t="s">
+        <v>135</v>
+      </c>
+      <c r="C69" t="s">
+        <v>134</v>
+      </c>
+      <c r="D69" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="E69">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F69" t="s">
+        <v>0</v>
+      </c>
+      <c r="G69" t="str">
+        <f>VLOOKUP(F69,Sheet3!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="B70" t="s">
+        <v>131</v>
+      </c>
+      <c r="C70" t="s">
+        <v>130</v>
+      </c>
+      <c r="D70" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="E70">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F70" t="s">
+        <v>10</v>
+      </c>
+      <c r="G70" t="str">
+        <f>VLOOKUP(F70,Sheet3!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71" t="s">
+        <v>127</v>
+      </c>
+      <c r="C71" t="s">
+        <v>126</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="E71">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F71" t="s">
+        <v>48</v>
+      </c>
+      <c r="G71" t="str">
+        <f>VLOOKUP(F71,Sheet3!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="B72" t="s">
+        <v>123</v>
+      </c>
+      <c r="C72" t="s">
+        <v>122</v>
+      </c>
+      <c r="D72" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="E72">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F72" t="s">
+        <v>39</v>
+      </c>
+      <c r="G72" t="str">
+        <f>VLOOKUP(F72,Sheet3!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73" s="2" t="s">
+        <v>120</v>
+      </c>
+      <c r="B73" t="s">
+        <v>119</v>
+      </c>
+      <c r="C73" t="s">
+        <v>118</v>
+      </c>
+      <c r="D73" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E73">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F73" t="s">
+        <v>48</v>
+      </c>
+      <c r="G73" t="str">
+        <f>VLOOKUP(F73,Sheet3!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74" t="s">
+        <v>115</v>
+      </c>
+      <c r="C74" t="s">
+        <v>114</v>
+      </c>
+      <c r="D74" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="E74">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F74" t="s">
+        <v>0</v>
+      </c>
+      <c r="G74" t="str">
+        <f>VLOOKUP(F74,Sheet3!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="B75" t="s">
+        <v>111</v>
+      </c>
+      <c r="C75" t="s">
+        <v>110</v>
+      </c>
+      <c r="D75" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="E75">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F75" t="s">
+        <v>5</v>
+      </c>
+      <c r="G75" t="str">
+        <f>VLOOKUP(F75,Sheet3!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76" t="s">
+        <v>107</v>
+      </c>
+      <c r="C76" t="s">
+        <v>106</v>
+      </c>
+      <c r="D76" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="E76">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F76" t="s">
+        <v>39</v>
+      </c>
+      <c r="G76" t="str">
+        <f>VLOOKUP(F76,Sheet3!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77" t="s">
+        <v>103</v>
+      </c>
+      <c r="C77" t="s">
+        <v>102</v>
+      </c>
+      <c r="D77" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="E77">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F77" t="s">
+        <v>39</v>
+      </c>
+      <c r="G77" t="str">
+        <f>VLOOKUP(F77,Sheet3!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B78" t="s">
+        <v>99</v>
+      </c>
+      <c r="C78" t="s">
+        <v>98</v>
+      </c>
+      <c r="D78" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="E78">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F78" t="s">
+        <v>39</v>
+      </c>
+      <c r="G78" t="str">
+        <f>VLOOKUP(F78,Sheet3!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B79" t="s">
+        <v>95</v>
+      </c>
+      <c r="C79" t="s">
+        <v>94</v>
+      </c>
+      <c r="D79" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="E79">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F79" t="s">
+        <v>48</v>
+      </c>
+      <c r="G79" t="str">
+        <f>VLOOKUP(F79,Sheet3!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B80" t="s">
+        <v>91</v>
+      </c>
+      <c r="C80" t="s">
+        <v>90</v>
+      </c>
+      <c r="D80" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="E80">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F80" t="s">
+        <v>48</v>
+      </c>
+      <c r="G80" t="str">
+        <f>VLOOKUP(F80,Sheet3!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B81" t="s">
+        <v>87</v>
+      </c>
+      <c r="C81" t="s">
+        <v>86</v>
+      </c>
+      <c r="D81" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E81">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F81" t="s">
+        <v>39</v>
+      </c>
+      <c r="G81" t="str">
+        <f>VLOOKUP(F81,Sheet3!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="B82" t="s">
+        <v>83</v>
+      </c>
+      <c r="C82" t="s">
+        <v>82</v>
+      </c>
+      <c r="D82" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E82">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F82" t="s">
+        <v>39</v>
+      </c>
+      <c r="G82" t="str">
+        <f>VLOOKUP(F82,Sheet3!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="B83" t="s">
+        <v>79</v>
+      </c>
+      <c r="C83" t="s">
+        <v>78</v>
+      </c>
+      <c r="D83" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="E83">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F83" t="s">
+        <v>39</v>
+      </c>
+      <c r="G83" t="str">
+        <f>VLOOKUP(F83,Sheet3!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="B84" t="s">
+        <v>75</v>
+      </c>
+      <c r="C84" t="s">
+        <v>74</v>
+      </c>
+      <c r="D84" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="E84">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F84" t="s">
+        <v>0</v>
+      </c>
+      <c r="G84" t="str">
+        <f>VLOOKUP(F84,Sheet3!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="B85" t="s">
+        <v>71</v>
+      </c>
+      <c r="C85" t="s">
+        <v>70</v>
+      </c>
+      <c r="D85" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E85">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F85" t="s">
+        <v>48</v>
+      </c>
+      <c r="G85" t="str">
+        <f>VLOOKUP(F85,Sheet3!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86" t="s">
+        <v>67</v>
+      </c>
+      <c r="C86" t="s">
+        <v>66</v>
+      </c>
+      <c r="D86" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E86">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F86" t="s">
+        <v>39</v>
+      </c>
+      <c r="G86" t="str">
+        <f>VLOOKUP(F86,Sheet3!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B87" t="s">
+        <v>63</v>
+      </c>
+      <c r="C87" t="s">
+        <v>62</v>
+      </c>
+      <c r="D87" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="E87">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F87" t="s">
+        <v>0</v>
+      </c>
+      <c r="G87" t="str">
+        <f>VLOOKUP(F87,Sheet3!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="B88" t="s">
+        <v>59</v>
+      </c>
+      <c r="C88" t="s">
+        <v>58</v>
+      </c>
+      <c r="D88" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E88">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F88" t="s">
+        <v>0</v>
+      </c>
+      <c r="G88" t="str">
+        <f>VLOOKUP(F88,Sheet3!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A89" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B89" t="s">
+        <v>55</v>
+      </c>
+      <c r="C89" t="s">
+        <v>54</v>
+      </c>
+      <c r="D89" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E89">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F89" t="s">
+        <v>48</v>
+      </c>
+      <c r="G89" t="str">
+        <f>VLOOKUP(F89,Sheet3!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A90" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B90" t="s">
+        <v>51</v>
+      </c>
+      <c r="C90" t="s">
+        <v>50</v>
+      </c>
+      <c r="D90" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="E90">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F90" t="s">
+        <v>48</v>
+      </c>
+      <c r="G90" t="str">
+        <f>VLOOKUP(F90,Sheet3!$A$1:$B$5,2)</f>
+        <v>D004</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A91" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B91" t="s">
+        <v>46</v>
+      </c>
+      <c r="C91" t="s">
+        <v>45</v>
+      </c>
+      <c r="D91" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E91">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F91" t="s">
+        <v>10</v>
+      </c>
+      <c r="G91" t="str">
+        <f>VLOOKUP(F91,Sheet3!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A92" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92" t="s">
+        <v>42</v>
+      </c>
+      <c r="C92" t="s">
+        <v>41</v>
+      </c>
+      <c r="D92" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="E92">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F92" t="s">
+        <v>39</v>
+      </c>
+      <c r="G92" t="str">
+        <f>VLOOKUP(F92,Sheet3!$A$1:$B$5,2)</f>
+        <v>D003</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A93" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B93" t="s">
+        <v>37</v>
+      </c>
+      <c r="C93" t="s">
+        <v>36</v>
+      </c>
+      <c r="D93" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="E93">
+        <f t="shared" ca="1" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="F93" t="s">
+        <v>10</v>
+      </c>
+      <c r="G93" t="str">
+        <f>VLOOKUP(F93,Sheet3!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A94" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B94" t="s">
+        <v>33</v>
+      </c>
+      <c r="C94" t="s">
+        <v>32</v>
+      </c>
+      <c r="D94" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E94">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F94" t="s">
+        <v>10</v>
+      </c>
+      <c r="G94" t="str">
+        <f>VLOOKUP(F94,Sheet3!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A95" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="B95" t="s">
+        <v>29</v>
+      </c>
+      <c r="C95" t="s">
+        <v>28</v>
+      </c>
+      <c r="D95" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E95">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F95" t="s">
+        <v>10</v>
+      </c>
+      <c r="G95" t="str">
+        <f>VLOOKUP(F95,Sheet3!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A96" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B96" t="s">
+        <v>25</v>
+      </c>
+      <c r="C96" t="s">
+        <v>24</v>
+      </c>
+      <c r="D96" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E96">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F96" t="s">
+        <v>0</v>
+      </c>
+      <c r="G96" t="str">
+        <f>VLOOKUP(F96,Sheet3!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A97" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B97" t="s">
+        <v>21</v>
+      </c>
+      <c r="C97" t="s">
+        <v>20</v>
+      </c>
+      <c r="D97" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E97">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F97" t="s">
+        <v>0</v>
+      </c>
+      <c r="G97" t="str">
+        <f>VLOOKUP(F97,Sheet3!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A98" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="B98" t="s">
+        <v>17</v>
+      </c>
+      <c r="C98" t="s">
+        <v>16</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E98">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F98" t="s">
+        <v>10</v>
+      </c>
+      <c r="G98" t="str">
+        <f>VLOOKUP(F98,Sheet3!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B99" t="s">
+        <v>13</v>
+      </c>
+      <c r="C99" t="s">
+        <v>12</v>
+      </c>
+      <c r="D99" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99">
+        <f t="shared" ca="1" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="F99" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" t="str">
+        <f>VLOOKUP(F99,Sheet3!$A$1:$B$5,2)</f>
+        <v>D005</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100" t="s">
+        <v>7</v>
+      </c>
+      <c r="D100" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100">
+        <f t="shared" ca="1" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="F100" t="s">
+        <v>5</v>
+      </c>
+      <c r="G100" t="str">
+        <f>VLOOKUP(F100,Sheet3!$A$1:$B$5,2)</f>
+        <v>D001</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A101" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B101" t="s">
+        <v>3</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2</v>
+      </c>
+      <c r="D101" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E101">
+        <f t="shared" ca="1" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="F101" t="s">
+        <v>0</v>
+      </c>
+      <c r="G101" t="str">
+        <f>VLOOKUP(F101,Sheet3!$A$1:$B$5,2)</f>
+        <v>D002</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B2" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>428</v>
+      </c>
+      <c r="B3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>429</v>
+      </c>
+      <c r="B4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>430</v>
+      </c>
+      <c r="B5" t="s">
+        <v>426</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>414</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>415</v>
+      </c>
+      <c r="B2" s="3"/>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>419</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/참고자료/학생정보테이블.xlsx
+++ b/참고자료/학생정보테이블.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보 (2)" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1540" uniqueCount="431">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="453">
   <si>
     <t>국어국문</t>
   </si>
@@ -1317,34 +1317,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>CODE</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>학과코드</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>법학</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DOO2</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DOO3</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DOO4</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>DOO5</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>컴퓨터공학</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
@@ -1382,6 +1358,114 @@
   </si>
   <si>
     <t>컴퓨터공학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과명</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>DO01</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>DO02</t>
+  </si>
+  <si>
+    <t>DO03</t>
+  </si>
+  <si>
+    <t>DO04</t>
+  </si>
+  <si>
+    <t>DO05</t>
+  </si>
+  <si>
+    <t>학과연락처</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조교</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>관광학</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>법학</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>학과장</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>연락처</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>위치</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>홍길동</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이몽룡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>성춘향</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>임꺽정</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>장영실</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조용필</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>남진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>태진아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>나훈아</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김호중</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본관1-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>본관1-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>별관3-1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>별관3-2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>특수관</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1787,7 +1871,7 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E33" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -1808,7 +1892,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1871,7 +1955,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -1892,7 +1976,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -1913,7 +1997,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -1934,7 +2018,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -1976,7 +2060,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -1997,7 +2081,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -2018,7 +2102,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -2039,7 +2123,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -2081,7 +2165,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -2186,7 +2270,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -2207,7 +2291,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
@@ -2228,7 +2312,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -2270,7 +2354,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -2291,7 +2375,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -2312,7 +2396,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -2375,7 +2459,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -2396,7 +2480,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -2417,7 +2501,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -2459,7 +2543,7 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -2480,7 +2564,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
@@ -2501,7 +2585,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -2522,7 +2606,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -2543,7 +2627,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -2564,7 +2648,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -2585,7 +2669,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -2606,7 +2690,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -2627,7 +2711,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -2648,7 +2732,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -2711,7 +2795,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -2795,7 +2879,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -2816,7 +2900,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -2837,7 +2921,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
@@ -2879,7 +2963,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -2921,7 +3005,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -2942,7 +3026,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -2963,7 +3047,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
@@ -2984,7 +3068,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -3005,7 +3089,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -3026,7 +3110,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -3047,7 +3131,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -3089,7 +3173,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -3131,7 +3215,7 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -3152,7 +3236,7 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
@@ -3236,7 +3320,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
@@ -3257,7 +3341,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
@@ -3320,7 +3404,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -3341,7 +3425,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
@@ -3362,7 +3446,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -3383,7 +3467,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -3404,7 +3488,7 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
@@ -3446,7 +3530,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
@@ -3467,7 +3551,7 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
@@ -3488,7 +3572,7 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
@@ -3530,7 +3614,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
@@ -3551,7 +3635,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -3572,7 +3656,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -3656,7 +3740,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -3677,7 +3761,7 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -3698,7 +3782,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -3719,7 +3803,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -3740,7 +3824,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -3782,7 +3866,7 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -3803,7 +3887,7 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -3824,7 +3908,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -3866,7 +3950,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -3883,7 +3967,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -3932,7 +4016,7 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E65" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -3953,7 +4037,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -3974,7 +4058,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -3995,7 +4079,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -4037,7 +4121,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -4058,7 +4142,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -4079,7 +4163,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -4100,7 +4184,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -4121,7 +4205,7 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
@@ -4142,7 +4226,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -4184,7 +4268,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -4247,7 +4331,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -4268,7 +4352,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -4289,7 +4373,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -4310,7 +4394,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -4331,7 +4415,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -4352,7 +4436,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
@@ -4373,7 +4457,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -4415,7 +4499,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -4436,7 +4520,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -4457,7 +4541,7 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
@@ -4478,7 +4562,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -4499,7 +4583,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -4520,7 +4604,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -4541,7 +4625,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -4562,7 +4646,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -4583,7 +4667,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -4604,7 +4688,7 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -4646,7 +4730,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -4667,7 +4751,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -4688,7 +4772,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -4709,7 +4793,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -4730,7 +4814,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -4772,7 +4856,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -4793,7 +4877,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -4835,7 +4919,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -4856,7 +4940,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -4877,7 +4961,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -4919,7 +5003,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -4940,7 +5024,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -4961,7 +5045,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -4982,7 +5066,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
@@ -5045,7 +5129,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -5066,7 +5150,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -5087,7 +5171,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -5108,7 +5192,7 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
@@ -5129,7 +5213,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -5150,7 +5234,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -5171,7 +5255,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -5255,7 +5339,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
@@ -5276,7 +5360,7 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -5297,7 +5381,7 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
@@ -5318,7 +5402,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -5339,7 +5423,7 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
@@ -5381,7 +5465,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
@@ -5423,7 +5507,7 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
@@ -5444,7 +5528,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -5465,7 +5549,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -5486,7 +5570,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
@@ -5507,7 +5591,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -5528,7 +5612,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -5570,7 +5654,7 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
@@ -5591,7 +5675,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
@@ -5633,7 +5717,7 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
@@ -5696,7 +5780,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -5717,7 +5801,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -5759,7 +5843,7 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
@@ -5780,7 +5864,7 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
@@ -5801,7 +5885,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -5822,7 +5906,7 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -5864,7 +5948,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -5885,7 +5969,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -5906,7 +5990,7 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -5927,7 +6011,7 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
@@ -5948,7 +6032,7 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -5969,7 +6053,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -5990,7 +6074,7 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -6011,7 +6095,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -6026,10 +6110,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A80" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
-      <selection activeCell="J90" sqref="J90"/>
+    <sheetView zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6042,7 +6126,7 @@
     <col min="6" max="6" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>409</v>
       </c>
@@ -6062,10 +6146,13 @@
         <v>410</v>
       </c>
       <c r="G1" t="s">
+        <v>431</v>
+      </c>
+      <c r="H1" t="s">
         <v>412</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>404</v>
       </c>
@@ -6080,17 +6167,17 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E65" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
       </c>
-      <c r="G2" t="str">
+      <c r="H2" t="str">
         <f>VLOOKUP(F2,Sheet3!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>400</v>
       </c>
@@ -6105,17 +6192,17 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
-      <c r="G3" t="str">
+      <c r="H3" t="str">
         <f>VLOOKUP(F3,Sheet3!$A$1:$B$5,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>396</v>
       </c>
@@ -6130,17 +6217,17 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="G4" t="str">
+      <c r="H4" t="str">
         <f>VLOOKUP(F4,Sheet3!$A$1:$B$5,2)</f>
         <v>D001</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>392</v>
       </c>
@@ -6155,17 +6242,17 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
       </c>
-      <c r="G5" t="str">
+      <c r="H5" t="str">
         <f>VLOOKUP(F5,Sheet3!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>388</v>
       </c>
@@ -6180,17 +6267,17 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
       </c>
-      <c r="G6" t="str">
+      <c r="H6" t="str">
         <f>VLOOKUP(F6,Sheet3!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>384</v>
       </c>
@@ -6210,12 +6297,12 @@
       <c r="F7" t="s">
         <v>48</v>
       </c>
-      <c r="G7" t="str">
+      <c r="H7" t="str">
         <f>VLOOKUP(F7,Sheet3!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>380</v>
       </c>
@@ -6230,17 +6317,17 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
       </c>
-      <c r="G8" t="str">
+      <c r="H8" t="str">
         <f>VLOOKUP(F8,Sheet3!$A$1:$B$5,2)</f>
         <v>D001</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>376</v>
       </c>
@@ -6255,17 +6342,17 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
       </c>
-      <c r="G9" t="str">
+      <c r="H9" t="str">
         <f>VLOOKUP(F9,Sheet3!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>372</v>
       </c>
@@ -6285,12 +6372,12 @@
       <c r="F10" t="s">
         <v>10</v>
       </c>
-      <c r="G10" t="str">
+      <c r="H10" t="str">
         <f>VLOOKUP(F10,Sheet3!$A$1:$B$5,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>368</v>
       </c>
@@ -6305,17 +6392,17 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
-      <c r="G11" t="str">
+      <c r="H11" t="str">
         <f>VLOOKUP(F11,Sheet3!$A$1:$B$5,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>364</v>
       </c>
@@ -6330,17 +6417,17 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
-      <c r="G12" t="str">
+      <c r="H12" t="str">
         <f>VLOOKUP(F12,Sheet3!$A$1:$B$5,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>360</v>
       </c>
@@ -6355,17 +6442,17 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
       </c>
-      <c r="G13" t="str">
+      <c r="H13" t="str">
         <f>VLOOKUP(F13,Sheet3!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>356</v>
       </c>
@@ -6380,17 +6467,17 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
       </c>
-      <c r="G14" t="str">
+      <c r="H14" t="str">
         <f>VLOOKUP(F14,Sheet3!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>352</v>
       </c>
@@ -6405,17 +6492,17 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
-      <c r="G15" t="str">
+      <c r="H15" t="str">
         <f>VLOOKUP(F15,Sheet3!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>348</v>
       </c>
@@ -6430,17 +6517,17 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
       </c>
-      <c r="G16" t="str">
+      <c r="H16" t="str">
         <f>VLOOKUP(F16,Sheet3!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>344</v>
       </c>
@@ -6455,17 +6542,17 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
       </c>
-      <c r="G17" t="str">
+      <c r="H17" t="str">
         <f>VLOOKUP(F17,Sheet3!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>340</v>
       </c>
@@ -6480,17 +6567,17 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
       </c>
-      <c r="G18" t="str">
+      <c r="H18" t="str">
         <f>VLOOKUP(F18,Sheet3!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>336</v>
       </c>
@@ -6505,17 +6592,17 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
-      <c r="G19" t="str">
+      <c r="H19" t="str">
         <f>VLOOKUP(F19,Sheet3!$A$1:$B$5,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>332</v>
       </c>
@@ -6530,17 +6617,17 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
       </c>
-      <c r="G20" t="str">
+      <c r="H20" t="str">
         <f>VLOOKUP(F20,Sheet3!$A$1:$B$5,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>328</v>
       </c>
@@ -6555,17 +6642,17 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
       </c>
-      <c r="G21" t="str">
+      <c r="H21" t="str">
         <f>VLOOKUP(F21,Sheet3!$A$1:$B$5,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>324</v>
       </c>
@@ -6585,12 +6672,12 @@
       <c r="F22" t="s">
         <v>48</v>
       </c>
-      <c r="G22" t="str">
+      <c r="H22" t="str">
         <f>VLOOKUP(F22,Sheet3!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>320</v>
       </c>
@@ -6605,17 +6692,17 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
       </c>
-      <c r="G23" t="str">
+      <c r="H23" t="str">
         <f>VLOOKUP(F23,Sheet3!$A$1:$B$5,2)</f>
         <v>D001</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>316</v>
       </c>
@@ -6635,12 +6722,12 @@
       <c r="F24" t="s">
         <v>48</v>
       </c>
-      <c r="G24" t="str">
+      <c r="H24" t="str">
         <f>VLOOKUP(F24,Sheet3!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>312</v>
       </c>
@@ -6655,17 +6742,17 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
       </c>
-      <c r="G25" t="str">
+      <c r="H25" t="str">
         <f>VLOOKUP(F25,Sheet3!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>308</v>
       </c>
@@ -6680,17 +6767,17 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
       </c>
-      <c r="G26" t="str">
+      <c r="H26" t="str">
         <f>VLOOKUP(F26,Sheet3!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>304</v>
       </c>
@@ -6705,17 +6792,17 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
       </c>
-      <c r="G27" t="str">
+      <c r="H27" t="str">
         <f>VLOOKUP(F27,Sheet3!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>300</v>
       </c>
@@ -6730,17 +6817,17 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
       </c>
-      <c r="G28" t="str">
+      <c r="H28" t="str">
         <f>VLOOKUP(F28,Sheet3!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>296</v>
       </c>
@@ -6755,17 +6842,17 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
       </c>
-      <c r="G29" t="str">
+      <c r="H29" t="str">
         <f>VLOOKUP(F29,Sheet3!$A$1:$B$5,2)</f>
         <v>D001</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>292</v>
       </c>
@@ -6780,17 +6867,17 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
       </c>
-      <c r="G30" t="str">
+      <c r="H30" t="str">
         <f>VLOOKUP(F30,Sheet3!$A$1:$B$5,2)</f>
         <v>D001</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>288</v>
       </c>
@@ -6810,12 +6897,12 @@
       <c r="F31" t="s">
         <v>5</v>
       </c>
-      <c r="G31" t="str">
+      <c r="H31" t="str">
         <f>VLOOKUP(F31,Sheet3!$A$1:$B$5,2)</f>
         <v>D001</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>284</v>
       </c>
@@ -6835,12 +6922,12 @@
       <c r="F32" t="s">
         <v>0</v>
       </c>
-      <c r="G32" t="str">
+      <c r="H32" t="str">
         <f>VLOOKUP(F32,Sheet3!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>280</v>
       </c>
@@ -6855,17 +6942,17 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
       </c>
-      <c r="G33" t="str">
+      <c r="H33" t="str">
         <f>VLOOKUP(F33,Sheet3!$A$1:$B$5,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>276</v>
       </c>
@@ -6880,17 +6967,17 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
       </c>
-      <c r="G34" t="str">
+      <c r="H34" t="str">
         <f>VLOOKUP(F34,Sheet3!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>272</v>
       </c>
@@ -6905,17 +6992,17 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
       </c>
-      <c r="G35" t="str">
+      <c r="H35" t="str">
         <f>VLOOKUP(F35,Sheet3!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>268</v>
       </c>
@@ -6930,17 +7017,17 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
       </c>
-      <c r="G36" t="str">
+      <c r="H36" t="str">
         <f>VLOOKUP(F36,Sheet3!$A$1:$B$5,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>264</v>
       </c>
@@ -6960,12 +7047,12 @@
       <c r="F37" t="s">
         <v>0</v>
       </c>
-      <c r="G37" t="str">
+      <c r="H37" t="str">
         <f>VLOOKUP(F37,Sheet3!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>260</v>
       </c>
@@ -6980,17 +7067,17 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
       </c>
-      <c r="G38" t="str">
+      <c r="H38" t="str">
         <f>VLOOKUP(F38,Sheet3!$A$1:$B$5,2)</f>
         <v>D001</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>256</v>
       </c>
@@ -7005,17 +7092,17 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
       </c>
-      <c r="G39" t="str">
+      <c r="H39" t="str">
         <f>VLOOKUP(F39,Sheet3!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>252</v>
       </c>
@@ -7030,17 +7117,17 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
       </c>
-      <c r="G40" t="str">
+      <c r="H40" t="str">
         <f>VLOOKUP(F40,Sheet3!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>248</v>
       </c>
@@ -7055,17 +7142,17 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
       </c>
-      <c r="G41" t="str">
+      <c r="H41" t="str">
         <f>VLOOKUP(F41,Sheet3!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>244</v>
       </c>
@@ -7080,17 +7167,17 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
       </c>
-      <c r="G42" t="str">
+      <c r="H42" t="str">
         <f>VLOOKUP(F42,Sheet3!$A$1:$B$5,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>240</v>
       </c>
@@ -7105,17 +7192,17 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
       </c>
-      <c r="G43" t="str">
+      <c r="H43" t="str">
         <f>VLOOKUP(F43,Sheet3!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>236</v>
       </c>
@@ -7130,17 +7217,17 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
       </c>
-      <c r="G44" t="str">
+      <c r="H44" t="str">
         <f>VLOOKUP(F44,Sheet3!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>232</v>
       </c>
@@ -7155,17 +7242,17 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
       </c>
-      <c r="G45" t="str">
+      <c r="H45" t="str">
         <f>VLOOKUP(F45,Sheet3!$A$1:$B$5,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>228</v>
       </c>
@@ -7185,12 +7272,12 @@
       <c r="F46" t="s">
         <v>39</v>
       </c>
-      <c r="G46" t="str">
+      <c r="H46" t="str">
         <f>VLOOKUP(F46,Sheet3!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>224</v>
       </c>
@@ -7205,17 +7292,17 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
       </c>
-      <c r="G47" t="str">
+      <c r="H47" t="str">
         <f>VLOOKUP(F47,Sheet3!$A$1:$B$5,2)</f>
         <v>D001</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>220</v>
       </c>
@@ -7235,12 +7322,12 @@
       <c r="F48" t="s">
         <v>39</v>
       </c>
-      <c r="G48" t="str">
+      <c r="H48" t="str">
         <f>VLOOKUP(F48,Sheet3!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>216</v>
       </c>
@@ -7255,17 +7342,17 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
       </c>
-      <c r="G49" t="str">
+      <c r="H49" t="str">
         <f>VLOOKUP(F49,Sheet3!$A$1:$B$5,2)</f>
         <v>D001</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>212</v>
       </c>
@@ -7285,12 +7372,12 @@
       <c r="F50" t="s">
         <v>0</v>
       </c>
-      <c r="G50" t="str">
+      <c r="H50" t="str">
         <f>VLOOKUP(F50,Sheet3!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>208</v>
       </c>
@@ -7305,17 +7392,17 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
       </c>
-      <c r="G51" t="str">
+      <c r="H51" t="str">
         <f>VLOOKUP(F51,Sheet3!$A$1:$B$5,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>204</v>
       </c>
@@ -7330,17 +7417,17 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
       </c>
-      <c r="G52" t="str">
+      <c r="H52" t="str">
         <f>VLOOKUP(F52,Sheet3!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>200</v>
       </c>
@@ -7355,17 +7442,17 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
       </c>
-      <c r="G53" t="str">
+      <c r="H53" t="str">
         <f>VLOOKUP(F53,Sheet3!$A$1:$B$5,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>196</v>
       </c>
@@ -7380,17 +7467,17 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
       </c>
-      <c r="G54" t="str">
+      <c r="H54" t="str">
         <f>VLOOKUP(F54,Sheet3!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>192</v>
       </c>
@@ -7405,17 +7492,17 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
       </c>
-      <c r="G55" t="str">
+      <c r="H55" t="str">
         <f>VLOOKUP(F55,Sheet3!$A$1:$B$5,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>188</v>
       </c>
@@ -7430,17 +7517,17 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
       </c>
-      <c r="G56" t="str">
+      <c r="H56" t="str">
         <f>VLOOKUP(F56,Sheet3!$A$1:$B$5,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>184</v>
       </c>
@@ -7460,12 +7547,12 @@
       <c r="F57" t="s">
         <v>48</v>
       </c>
-      <c r="G57" t="str">
+      <c r="H57" t="str">
         <f>VLOOKUP(F57,Sheet3!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>180</v>
       </c>
@@ -7485,12 +7572,12 @@
       <c r="F58" t="s">
         <v>48</v>
       </c>
-      <c r="G58" t="str">
+      <c r="H58" t="str">
         <f>VLOOKUP(F58,Sheet3!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>176</v>
       </c>
@@ -7505,17 +7592,17 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
       </c>
-      <c r="G59" t="str">
+      <c r="H59" t="str">
         <f>VLOOKUP(F59,Sheet3!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>172</v>
       </c>
@@ -7530,17 +7617,17 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
       </c>
-      <c r="G60" t="str">
+      <c r="H60" t="str">
         <f>VLOOKUP(F60,Sheet3!$A$1:$B$5,2)</f>
         <v>D001</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>168</v>
       </c>
@@ -7555,17 +7642,17 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
       </c>
-      <c r="G61" t="str">
+      <c r="H61" t="str">
         <f>VLOOKUP(F61,Sheet3!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>164</v>
       </c>
@@ -7580,17 +7667,17 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
       </c>
-      <c r="G62" t="str">
+      <c r="H62" t="str">
         <f>VLOOKUP(F62,Sheet3!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>160</v>
       </c>
@@ -7605,17 +7692,17 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
       </c>
-      <c r="G63" t="str">
+      <c r="H63" t="str">
         <f>VLOOKUP(F63,Sheet3!$A$1:$B$5,2)</f>
         <v>D001</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>156</v>
       </c>
@@ -7630,17 +7717,17 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
       </c>
-      <c r="G64" t="str">
+      <c r="H64" t="str">
         <f>VLOOKUP(F64,Sheet3!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>152</v>
       </c>
@@ -7655,17 +7742,17 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
       </c>
-      <c r="G65" t="str">
+      <c r="H65" t="str">
         <f>VLOOKUP(F65,Sheet3!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>148</v>
       </c>
@@ -7685,12 +7772,12 @@
       <c r="F66" t="s">
         <v>5</v>
       </c>
-      <c r="G66" t="str">
+      <c r="H66" t="str">
         <f>VLOOKUP(F66,Sheet3!$A$1:$B$5,2)</f>
         <v>D001</v>
       </c>
     </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>144</v>
       </c>
@@ -7705,17 +7792,17 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
       </c>
-      <c r="G67" t="str">
+      <c r="H67" t="str">
         <f>VLOOKUP(F67,Sheet3!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>140</v>
       </c>
@@ -7730,17 +7817,17 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
       </c>
-      <c r="G68" t="str">
+      <c r="H68" t="str">
         <f>VLOOKUP(F68,Sheet3!$A$1:$B$5,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>136</v>
       </c>
@@ -7755,17 +7842,17 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
       </c>
-      <c r="G69" t="str">
+      <c r="H69" t="str">
         <f>VLOOKUP(F69,Sheet3!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>132</v>
       </c>
@@ -7780,17 +7867,17 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
       </c>
-      <c r="G70" t="str">
+      <c r="H70" t="str">
         <f>VLOOKUP(F70,Sheet3!$A$1:$B$5,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>128</v>
       </c>
@@ -7810,12 +7897,12 @@
       <c r="F71" t="s">
         <v>48</v>
       </c>
-      <c r="G71" t="str">
+      <c r="H71" t="str">
         <f>VLOOKUP(F71,Sheet3!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>124</v>
       </c>
@@ -7830,17 +7917,17 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
       </c>
-      <c r="G72" t="str">
+      <c r="H72" t="str">
         <f>VLOOKUP(F72,Sheet3!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>120</v>
       </c>
@@ -7855,17 +7942,17 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
       </c>
-      <c r="G73" t="str">
+      <c r="H73" t="str">
         <f>VLOOKUP(F73,Sheet3!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>116</v>
       </c>
@@ -7880,17 +7967,17 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
       </c>
-      <c r="G74" t="str">
+      <c r="H74" t="str">
         <f>VLOOKUP(F74,Sheet3!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>112</v>
       </c>
@@ -7905,17 +7992,17 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
       </c>
-      <c r="G75" t="str">
+      <c r="H75" t="str">
         <f>VLOOKUP(F75,Sheet3!$A$1:$B$5,2)</f>
         <v>D001</v>
       </c>
     </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>108</v>
       </c>
@@ -7930,17 +8017,17 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
       </c>
-      <c r="G76" t="str">
+      <c r="H76" t="str">
         <f>VLOOKUP(F76,Sheet3!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>104</v>
       </c>
@@ -7955,17 +8042,17 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
       </c>
-      <c r="G77" t="str">
+      <c r="H77" t="str">
         <f>VLOOKUP(F77,Sheet3!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>100</v>
       </c>
@@ -7980,17 +8067,17 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
       </c>
-      <c r="G78" t="str">
+      <c r="H78" t="str">
         <f>VLOOKUP(F78,Sheet3!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>96</v>
       </c>
@@ -8005,17 +8092,17 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
       </c>
-      <c r="G79" t="str">
+      <c r="H79" t="str">
         <f>VLOOKUP(F79,Sheet3!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>92</v>
       </c>
@@ -8030,17 +8117,17 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
       </c>
-      <c r="G80" t="str">
+      <c r="H80" t="str">
         <f>VLOOKUP(F80,Sheet3!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>88</v>
       </c>
@@ -8055,17 +8142,17 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
       </c>
-      <c r="G81" t="str">
+      <c r="H81" t="str">
         <f>VLOOKUP(F81,Sheet3!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>84</v>
       </c>
@@ -8080,17 +8167,17 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
       </c>
-      <c r="G82" t="str">
+      <c r="H82" t="str">
         <f>VLOOKUP(F82,Sheet3!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>80</v>
       </c>
@@ -8105,17 +8192,17 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
       </c>
-      <c r="G83" t="str">
+      <c r="H83" t="str">
         <f>VLOOKUP(F83,Sheet3!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>76</v>
       </c>
@@ -8135,12 +8222,12 @@
       <c r="F84" t="s">
         <v>0</v>
       </c>
-      <c r="G84" t="str">
+      <c r="H84" t="str">
         <f>VLOOKUP(F84,Sheet3!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>72</v>
       </c>
@@ -8160,12 +8247,12 @@
       <c r="F85" t="s">
         <v>48</v>
       </c>
-      <c r="G85" t="str">
+      <c r="H85" t="str">
         <f>VLOOKUP(F85,Sheet3!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>68</v>
       </c>
@@ -8180,17 +8267,17 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
       </c>
-      <c r="G86" t="str">
+      <c r="H86" t="str">
         <f>VLOOKUP(F86,Sheet3!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>64</v>
       </c>
@@ -8205,17 +8292,17 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
       </c>
-      <c r="G87" t="str">
+      <c r="H87" t="str">
         <f>VLOOKUP(F87,Sheet3!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>60</v>
       </c>
@@ -8235,12 +8322,12 @@
       <c r="F88" t="s">
         <v>0</v>
       </c>
-      <c r="G88" t="str">
+      <c r="H88" t="str">
         <f>VLOOKUP(F88,Sheet3!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>56</v>
       </c>
@@ -8255,17 +8342,17 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
       </c>
-      <c r="G89" t="str">
+      <c r="H89" t="str">
         <f>VLOOKUP(F89,Sheet3!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>52</v>
       </c>
@@ -8285,12 +8372,12 @@
       <c r="F90" t="s">
         <v>48</v>
       </c>
-      <c r="G90" t="str">
+      <c r="H90" t="str">
         <f>VLOOKUP(F90,Sheet3!$A$1:$B$5,2)</f>
         <v>D004</v>
       </c>
     </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>47</v>
       </c>
@@ -8310,12 +8397,12 @@
       <c r="F91" t="s">
         <v>10</v>
       </c>
-      <c r="G91" t="str">
+      <c r="H91" t="str">
         <f>VLOOKUP(F91,Sheet3!$A$1:$B$5,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>43</v>
       </c>
@@ -8330,17 +8417,17 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
       </c>
-      <c r="G92" t="str">
+      <c r="H92" t="str">
         <f>VLOOKUP(F92,Sheet3!$A$1:$B$5,2)</f>
         <v>D003</v>
       </c>
     </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>38</v>
       </c>
@@ -8355,17 +8442,17 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
       </c>
-      <c r="G93" t="str">
+      <c r="H93" t="str">
         <f>VLOOKUP(F93,Sheet3!$A$1:$B$5,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>34</v>
       </c>
@@ -8380,17 +8467,17 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
       </c>
-      <c r="G94" t="str">
+      <c r="H94" t="str">
         <f>VLOOKUP(F94,Sheet3!$A$1:$B$5,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>30</v>
       </c>
@@ -8405,17 +8492,17 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
       </c>
-      <c r="G95" t="str">
+      <c r="H95" t="str">
         <f>VLOOKUP(F95,Sheet3!$A$1:$B$5,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>26</v>
       </c>
@@ -8430,17 +8517,17 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
       </c>
-      <c r="G96" t="str">
+      <c r="H96" t="str">
         <f>VLOOKUP(F96,Sheet3!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>22</v>
       </c>
@@ -8455,17 +8542,17 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
       </c>
-      <c r="G97" t="str">
+      <c r="H97" t="str">
         <f>VLOOKUP(F97,Sheet3!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
     </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>18</v>
       </c>
@@ -8480,17 +8567,17 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
       </c>
-      <c r="G98" t="str">
+      <c r="H98" t="str">
         <f>VLOOKUP(F98,Sheet3!$A$1:$B$5,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>14</v>
       </c>
@@ -8510,12 +8597,12 @@
       <c r="F99" t="s">
         <v>10</v>
       </c>
-      <c r="G99" t="str">
+      <c r="H99" t="str">
         <f>VLOOKUP(F99,Sheet3!$A$1:$B$5,2)</f>
         <v>D005</v>
       </c>
     </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>9</v>
       </c>
@@ -8530,17 +8617,17 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
       </c>
-      <c r="G100" t="str">
+      <c r="H100" t="str">
         <f>VLOOKUP(F100,Sheet3!$A$1:$B$5,2)</f>
         <v>D001</v>
       </c>
     </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>4</v>
       </c>
@@ -8555,12 +8642,12 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
       </c>
-      <c r="G101" t="str">
+      <c r="H101" t="str">
         <f>VLOOKUP(F101,Sheet3!$A$1:$B$5,2)</f>
         <v>D002</v>
       </c>
@@ -8577,49 +8664,49 @@
   <dimension ref="A1:B5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B1" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B2" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B3" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B4" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B5" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
     </row>
   </sheetData>
@@ -8630,58 +8717,141 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B6"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="M26" sqref="M26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="5" max="5" width="13.125" customWidth="1"/>
+    <col min="6" max="6" width="14.25" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>414</v>
+        <v>425</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>413</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="C1" t="s">
+        <v>435</v>
+      </c>
+      <c r="D1" t="s">
+        <v>432</v>
+      </c>
+      <c r="E1" t="s">
+        <v>436</v>
+      </c>
+      <c r="F1" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>415</v>
-      </c>
-      <c r="B2" s="3"/>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>433</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>426</v>
+      </c>
+      <c r="C2" t="s">
+        <v>438</v>
+      </c>
+      <c r="D2" t="s">
+        <v>443</v>
+      </c>
+      <c r="E2" t="str">
+        <f ca="1">"062"&amp; TEXT(RANDBETWEEN(10000,99999),"-000-0000")</f>
+        <v>062-007-6348</v>
+      </c>
+      <c r="F2" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>427</v>
+      </c>
+      <c r="C3" t="s">
+        <v>439</v>
+      </c>
+      <c r="D3" t="s">
+        <v>444</v>
+      </c>
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E6" ca="1" si="0">"062"&amp; TEXT(RANDBETWEEN(10000,99999),"-000-0000")</f>
+        <v>062-008-6911</v>
+      </c>
+      <c r="F3" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>5</v>
+        <v>434</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+        <v>428</v>
+      </c>
+      <c r="C4" t="s">
+        <v>440</v>
+      </c>
+      <c r="D4" t="s">
+        <v>445</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>062-007-4730</v>
+      </c>
+      <c r="F4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>429</v>
+      </c>
+      <c r="C5" t="s">
+        <v>441</v>
+      </c>
+      <c r="D5" t="s">
+        <v>446</v>
+      </c>
+      <c r="E5" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>062-003-0182</v>
+      </c>
+      <c r="F5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>419</v>
+        <v>430</v>
+      </c>
+      <c r="C6" t="s">
+        <v>442</v>
+      </c>
+      <c r="D6" t="s">
+        <v>447</v>
+      </c>
+      <c r="E6" t="str">
+        <f t="shared" ca="1" si="0"/>
+        <v>062-004-0117</v>
+      </c>
+      <c r="F6" t="s">
+        <v>452</v>
       </c>
     </row>
   </sheetData>

--- a/참고자료/학생정보테이블.xlsx
+++ b/참고자료/학생정보테이블.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="학생정보 (2)" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1561" uniqueCount="453">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1569" uniqueCount="444">
   <si>
     <t>국어국문</t>
   </si>
@@ -1325,39 +1325,7 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>관광학</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D001</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D002</t>
-  </si>
-  <si>
-    <t>D003</t>
-  </si>
-  <si>
-    <t>D004</t>
-  </si>
-  <si>
-    <t>D005</t>
-  </si>
-  <si>
-    <t>국어국문</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>법학</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>전자공학</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>컴퓨터공학</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -1871,7 +1839,7 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E33" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -1892,7 +1860,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -1913,7 +1881,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -1934,7 +1902,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -1955,7 +1923,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -1976,7 +1944,7 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
@@ -2081,7 +2049,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -2144,7 +2112,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -2186,7 +2154,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -2207,7 +2175,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -2228,7 +2196,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -2270,7 +2238,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -2312,7 +2280,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -2333,7 +2301,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
@@ -2354,7 +2322,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -2375,7 +2343,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -2417,7 +2385,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -2438,7 +2406,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -2459,7 +2427,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -2480,7 +2448,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -2501,7 +2469,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -2522,7 +2490,7 @@
       </c>
       <c r="E33">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
         <v>10</v>
@@ -2543,7 +2511,7 @@
       </c>
       <c r="E34">
         <f t="shared" ref="E34:E65" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -2564,7 +2532,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
@@ -2585,7 +2553,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -2606,7 +2574,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -2648,7 +2616,7 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
@@ -2669,7 +2637,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -2690,7 +2658,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -2711,7 +2679,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -2732,7 +2700,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -2753,7 +2721,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -2774,7 +2742,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -2795,7 +2763,7 @@
       </c>
       <c r="E46">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -2816,7 +2784,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -2837,7 +2805,7 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
@@ -2858,7 +2826,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -2879,7 +2847,7 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
@@ -2900,7 +2868,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -2921,7 +2889,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
@@ -2942,7 +2910,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -2963,7 +2931,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -2984,7 +2952,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -3026,7 +2994,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -3068,7 +3036,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -3089,7 +3057,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -3110,7 +3078,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -3131,7 +3099,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -3152,7 +3120,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -3194,7 +3162,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
@@ -3215,7 +3183,7 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="2">RANDBETWEEN(1,4)</f>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -3236,7 +3204,7 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
@@ -3257,7 +3225,7 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
@@ -3299,7 +3267,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -3320,7 +3288,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
@@ -3341,7 +3309,7 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
@@ -3383,7 +3351,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -3404,7 +3372,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -3425,7 +3393,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
@@ -3446,7 +3414,7 @@
       </c>
       <c r="E77">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F77" t="s">
         <v>39</v>
@@ -3467,7 +3435,7 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
@@ -3488,7 +3456,7 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
@@ -3509,7 +3477,7 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
@@ -3530,7 +3498,7 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
@@ -3551,7 +3519,7 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
@@ -3572,7 +3540,7 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
@@ -3593,7 +3561,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -3614,7 +3582,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
@@ -3656,7 +3624,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -3719,7 +3687,7 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
@@ -3740,7 +3708,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -3761,7 +3729,7 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -3803,7 +3771,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -3824,7 +3792,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -3845,7 +3813,7 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
@@ -3887,7 +3855,7 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
@@ -3908,7 +3876,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="2"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -3929,7 +3897,7 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="2"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -3950,7 +3918,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="2"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -3967,7 +3935,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F101"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+    <sheetView topLeftCell="A34" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -4016,7 +3984,7 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E65" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
@@ -4037,7 +4005,7 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
@@ -4058,7 +4026,7 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
@@ -4079,7 +4047,7 @@
       </c>
       <c r="E5">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F5" t="s">
         <v>39</v>
@@ -4100,7 +4068,7 @@
       </c>
       <c r="E6">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6" t="s">
         <v>48</v>
@@ -4142,7 +4110,7 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
@@ -4163,7 +4131,7 @@
       </c>
       <c r="E9">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" t="s">
         <v>48</v>
@@ -4184,7 +4152,7 @@
       </c>
       <c r="E10">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F10" t="s">
         <v>10</v>
@@ -4226,7 +4194,7 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
@@ -4247,7 +4215,7 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
@@ -4268,7 +4236,7 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
@@ -4289,7 +4257,7 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
@@ -4310,7 +4278,7 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
@@ -4331,7 +4299,7 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
@@ -4352,7 +4320,7 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
@@ -4373,7 +4341,7 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
@@ -4394,7 +4362,7 @@
       </c>
       <c r="E20">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F20" t="s">
         <v>10</v>
@@ -4415,7 +4383,7 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
@@ -4436,7 +4404,7 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
@@ -4457,7 +4425,7 @@
       </c>
       <c r="E23">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F23" t="s">
         <v>5</v>
@@ -4478,7 +4446,7 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
@@ -4499,7 +4467,7 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
@@ -4520,7 +4488,7 @@
       </c>
       <c r="E26">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F26" t="s">
         <v>39</v>
@@ -4562,7 +4530,7 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
@@ -4583,7 +4551,7 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
@@ -4604,7 +4572,7 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
@@ -4625,7 +4593,7 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
@@ -4646,7 +4614,7 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
@@ -4688,7 +4656,7 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
@@ -4709,7 +4677,7 @@
       </c>
       <c r="E35">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F35" t="s">
         <v>48</v>
@@ -4730,7 +4698,7 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
@@ -4751,7 +4719,7 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
@@ -4772,7 +4740,7 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
@@ -4814,7 +4782,7 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
@@ -4835,7 +4803,7 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
@@ -4856,7 +4824,7 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
@@ -4877,7 +4845,7 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
@@ -4898,7 +4866,7 @@
       </c>
       <c r="E44">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
         <v>0</v>
@@ -4919,7 +4887,7 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
@@ -4961,7 +4929,7 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
@@ -5003,7 +4971,7 @@
       </c>
       <c r="E49">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
         <v>5</v>
@@ -5045,7 +5013,7 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
@@ -5066,7 +5034,7 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
@@ -5087,7 +5055,7 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
@@ -5108,7 +5076,7 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -5129,7 +5097,7 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
@@ -5150,7 +5118,7 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
@@ -5171,7 +5139,7 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
@@ -5213,7 +5181,7 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -5234,7 +5202,7 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
@@ -5255,7 +5223,7 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
@@ -5276,7 +5244,7 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -5297,7 +5265,7 @@
       </c>
       <c r="E63">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F63" t="s">
         <v>5</v>
@@ -5318,7 +5286,7 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
@@ -5339,7 +5307,7 @@
       </c>
       <c r="E65">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F65" t="s">
         <v>48</v>
@@ -5360,7 +5328,7 @@
       </c>
       <c r="E66">
         <f t="shared" ref="E66:E101" ca="1" si="1">RANDBETWEEN(1,4)</f>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F66" t="s">
         <v>5</v>
@@ -5444,7 +5412,7 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
@@ -5465,7 +5433,7 @@
       </c>
       <c r="E71">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F71" t="s">
         <v>48</v>
@@ -5528,7 +5496,7 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
@@ -5549,7 +5517,7 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
@@ -5570,7 +5538,7 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
@@ -5633,7 +5601,7 @@
       </c>
       <c r="E79">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F79" t="s">
         <v>48</v>
@@ -5696,7 +5664,7 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
@@ -5738,7 +5706,7 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
@@ -5759,7 +5727,7 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
@@ -5780,7 +5748,7 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
@@ -5801,7 +5769,7 @@
       </c>
       <c r="E87">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F87" t="s">
         <v>0</v>
@@ -5843,7 +5811,7 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
@@ -5885,7 +5853,7 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
@@ -5906,7 +5874,7 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
@@ -5927,7 +5895,7 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
@@ -5948,7 +5916,7 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
@@ -5969,7 +5937,7 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
@@ -6053,7 +6021,7 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
@@ -6074,7 +6042,7 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
@@ -6095,7 +6063,7 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
@@ -6146,7 +6114,7 @@
         <v>410</v>
       </c>
       <c r="G1" t="s">
-        <v>431</v>
+        <v>422</v>
       </c>
       <c r="H1" t="s">
         <v>412</v>
@@ -6167,14 +6135,14 @@
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E65" ca="1" si="0">RANDBETWEEN(1,4)</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2" t="s">
         <v>39</v>
       </c>
       <c r="H2" t="str">
         <f>VLOOKUP(F2,Sheet3!$A$1:$B$5,2)</f>
-        <v>D003</v>
+        <v>DO03</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
@@ -6192,14 +6160,14 @@
       </c>
       <c r="E3">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
         <v>10</v>
       </c>
       <c r="H3" t="str">
         <f>VLOOKUP(F3,Sheet3!$A$1:$B$5,2)</f>
-        <v>D005</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
@@ -6217,14 +6185,14 @@
       </c>
       <c r="E4">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F4" t="s">
         <v>5</v>
       </c>
-      <c r="H4" t="str">
+      <c r="H4" t="e">
         <f>VLOOKUP(F4,Sheet3!$A$1:$B$5,2)</f>
-        <v>D001</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
@@ -6249,7 +6217,7 @@
       </c>
       <c r="H5" t="str">
         <f>VLOOKUP(F5,Sheet3!$A$1:$B$5,2)</f>
-        <v>D003</v>
+        <v>DO03</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
@@ -6274,7 +6242,7 @@
       </c>
       <c r="H6" t="str">
         <f>VLOOKUP(F6,Sheet3!$A$1:$B$5,2)</f>
-        <v>D004</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
@@ -6292,14 +6260,14 @@
       </c>
       <c r="E7">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F7" t="s">
         <v>48</v>
       </c>
       <c r="H7" t="str">
         <f>VLOOKUP(F7,Sheet3!$A$1:$B$5,2)</f>
-        <v>D004</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
@@ -6317,14 +6285,14 @@
       </c>
       <c r="E8">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F8" t="s">
         <v>5</v>
       </c>
-      <c r="H8" t="str">
+      <c r="H8" t="e">
         <f>VLOOKUP(F8,Sheet3!$A$1:$B$5,2)</f>
-        <v>D001</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
@@ -6349,7 +6317,7 @@
       </c>
       <c r="H9" t="str">
         <f>VLOOKUP(F9,Sheet3!$A$1:$B$5,2)</f>
-        <v>D004</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.3">
@@ -6374,7 +6342,7 @@
       </c>
       <c r="H10" t="str">
         <f>VLOOKUP(F10,Sheet3!$A$1:$B$5,2)</f>
-        <v>D005</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.3">
@@ -6392,14 +6360,14 @@
       </c>
       <c r="E11">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F11" t="s">
         <v>10</v>
       </c>
       <c r="H11" t="str">
         <f>VLOOKUP(F11,Sheet3!$A$1:$B$5,2)</f>
-        <v>D005</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.3">
@@ -6417,14 +6385,14 @@
       </c>
       <c r="E12">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12" t="s">
         <v>10</v>
       </c>
       <c r="H12" t="str">
         <f>VLOOKUP(F12,Sheet3!$A$1:$B$5,2)</f>
-        <v>D005</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
@@ -6442,14 +6410,14 @@
       </c>
       <c r="E13">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13" t="s">
         <v>48</v>
       </c>
       <c r="H13" t="str">
         <f>VLOOKUP(F13,Sheet3!$A$1:$B$5,2)</f>
-        <v>D004</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
@@ -6467,14 +6435,14 @@
       </c>
       <c r="E14">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F14" t="s">
         <v>39</v>
       </c>
       <c r="H14" t="str">
         <f>VLOOKUP(F14,Sheet3!$A$1:$B$5,2)</f>
-        <v>D003</v>
+        <v>DO03</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
@@ -6492,14 +6460,14 @@
       </c>
       <c r="E15">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15" t="s">
         <v>0</v>
       </c>
       <c r="H15" t="str">
         <f>VLOOKUP(F15,Sheet3!$A$1:$B$5,2)</f>
-        <v>D002</v>
+        <v>DO02</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
@@ -6517,14 +6485,14 @@
       </c>
       <c r="E16">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" t="s">
         <v>48</v>
       </c>
       <c r="H16" t="str">
         <f>VLOOKUP(F16,Sheet3!$A$1:$B$5,2)</f>
-        <v>D004</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="17" spans="1:8" x14ac:dyDescent="0.3">
@@ -6542,14 +6510,14 @@
       </c>
       <c r="E17">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F17" t="s">
         <v>39</v>
       </c>
       <c r="H17" t="str">
         <f>VLOOKUP(F17,Sheet3!$A$1:$B$5,2)</f>
-        <v>D003</v>
+        <v>DO03</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.3">
@@ -6567,14 +6535,14 @@
       </c>
       <c r="E18">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
         <v>48</v>
       </c>
       <c r="H18" t="str">
         <f>VLOOKUP(F18,Sheet3!$A$1:$B$5,2)</f>
-        <v>D004</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.3">
@@ -6592,14 +6560,14 @@
       </c>
       <c r="E19">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F19" t="s">
         <v>10</v>
       </c>
       <c r="H19" t="str">
         <f>VLOOKUP(F19,Sheet3!$A$1:$B$5,2)</f>
-        <v>D005</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.3">
@@ -6624,7 +6592,7 @@
       </c>
       <c r="H20" t="str">
         <f>VLOOKUP(F20,Sheet3!$A$1:$B$5,2)</f>
-        <v>D005</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.3">
@@ -6642,14 +6610,14 @@
       </c>
       <c r="E21">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F21" t="s">
         <v>10</v>
       </c>
       <c r="H21" t="str">
         <f>VLOOKUP(F21,Sheet3!$A$1:$B$5,2)</f>
-        <v>D005</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.3">
@@ -6667,14 +6635,14 @@
       </c>
       <c r="E22">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F22" t="s">
         <v>48</v>
       </c>
       <c r="H22" t="str">
         <f>VLOOKUP(F22,Sheet3!$A$1:$B$5,2)</f>
-        <v>D004</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.3">
@@ -6697,9 +6665,9 @@
       <c r="F23" t="s">
         <v>5</v>
       </c>
-      <c r="H23" t="str">
+      <c r="H23" t="e">
         <f>VLOOKUP(F23,Sheet3!$A$1:$B$5,2)</f>
-        <v>D001</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.3">
@@ -6717,14 +6685,14 @@
       </c>
       <c r="E24">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F24" t="s">
         <v>48</v>
       </c>
       <c r="H24" t="str">
         <f>VLOOKUP(F24,Sheet3!$A$1:$B$5,2)</f>
-        <v>D004</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.3">
@@ -6742,14 +6710,14 @@
       </c>
       <c r="E25">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25" t="s">
         <v>48</v>
       </c>
       <c r="H25" t="str">
         <f>VLOOKUP(F25,Sheet3!$A$1:$B$5,2)</f>
-        <v>D004</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.3">
@@ -6774,7 +6742,7 @@
       </c>
       <c r="H26" t="str">
         <f>VLOOKUP(F26,Sheet3!$A$1:$B$5,2)</f>
-        <v>D003</v>
+        <v>DO03</v>
       </c>
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.3">
@@ -6792,14 +6760,14 @@
       </c>
       <c r="E27">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27" t="s">
         <v>39</v>
       </c>
       <c r="H27" t="str">
         <f>VLOOKUP(F27,Sheet3!$A$1:$B$5,2)</f>
-        <v>D003</v>
+        <v>DO03</v>
       </c>
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.3">
@@ -6817,14 +6785,14 @@
       </c>
       <c r="E28">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
         <v>0</v>
       </c>
       <c r="H28" t="str">
         <f>VLOOKUP(F28,Sheet3!$A$1:$B$5,2)</f>
-        <v>D002</v>
+        <v>DO02</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.3">
@@ -6842,14 +6810,14 @@
       </c>
       <c r="E29">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F29" t="s">
         <v>5</v>
       </c>
-      <c r="H29" t="str">
+      <c r="H29" t="e">
         <f>VLOOKUP(F29,Sheet3!$A$1:$B$5,2)</f>
-        <v>D001</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.3">
@@ -6867,14 +6835,14 @@
       </c>
       <c r="E30">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F30" t="s">
         <v>5</v>
       </c>
-      <c r="H30" t="str">
+      <c r="H30" t="e">
         <f>VLOOKUP(F30,Sheet3!$A$1:$B$5,2)</f>
-        <v>D001</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.3">
@@ -6892,14 +6860,14 @@
       </c>
       <c r="E31">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F31" t="s">
         <v>5</v>
       </c>
-      <c r="H31" t="str">
+      <c r="H31" t="e">
         <f>VLOOKUP(F31,Sheet3!$A$1:$B$5,2)</f>
-        <v>D001</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.3">
@@ -6917,14 +6885,14 @@
       </c>
       <c r="E32">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
         <v>0</v>
       </c>
       <c r="H32" t="str">
         <f>VLOOKUP(F32,Sheet3!$A$1:$B$5,2)</f>
-        <v>D002</v>
+        <v>DO02</v>
       </c>
     </row>
     <row r="33" spans="1:8" x14ac:dyDescent="0.3">
@@ -6949,7 +6917,7 @@
       </c>
       <c r="H33" t="str">
         <f>VLOOKUP(F33,Sheet3!$A$1:$B$5,2)</f>
-        <v>D005</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="34" spans="1:8" x14ac:dyDescent="0.3">
@@ -6967,14 +6935,14 @@
       </c>
       <c r="E34">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F34" t="s">
         <v>0</v>
       </c>
       <c r="H34" t="str">
         <f>VLOOKUP(F34,Sheet3!$A$1:$B$5,2)</f>
-        <v>D002</v>
+        <v>DO02</v>
       </c>
     </row>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
@@ -6999,7 +6967,7 @@
       </c>
       <c r="H35" t="str">
         <f>VLOOKUP(F35,Sheet3!$A$1:$B$5,2)</f>
-        <v>D004</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
@@ -7017,14 +6985,14 @@
       </c>
       <c r="E36">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F36" t="s">
         <v>10</v>
       </c>
       <c r="H36" t="str">
         <f>VLOOKUP(F36,Sheet3!$A$1:$B$5,2)</f>
-        <v>D005</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
@@ -7042,14 +7010,14 @@
       </c>
       <c r="E37">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F37" t="s">
         <v>0</v>
       </c>
       <c r="H37" t="str">
         <f>VLOOKUP(F37,Sheet3!$A$1:$B$5,2)</f>
-        <v>D002</v>
+        <v>DO02</v>
       </c>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
@@ -7067,14 +7035,14 @@
       </c>
       <c r="E38">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F38" t="s">
         <v>5</v>
       </c>
-      <c r="H38" t="str">
+      <c r="H38" t="e">
         <f>VLOOKUP(F38,Sheet3!$A$1:$B$5,2)</f>
-        <v>D001</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
@@ -7092,14 +7060,14 @@
       </c>
       <c r="E39">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F39" t="s">
         <v>0</v>
       </c>
       <c r="H39" t="str">
         <f>VLOOKUP(F39,Sheet3!$A$1:$B$5,2)</f>
-        <v>D002</v>
+        <v>DO02</v>
       </c>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
@@ -7117,14 +7085,14 @@
       </c>
       <c r="E40">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F40" t="s">
         <v>48</v>
       </c>
       <c r="H40" t="str">
         <f>VLOOKUP(F40,Sheet3!$A$1:$B$5,2)</f>
-        <v>D004</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
@@ -7142,14 +7110,14 @@
       </c>
       <c r="E41">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F41" t="s">
         <v>39</v>
       </c>
       <c r="H41" t="str">
         <f>VLOOKUP(F41,Sheet3!$A$1:$B$5,2)</f>
-        <v>D003</v>
+        <v>DO03</v>
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
@@ -7167,14 +7135,14 @@
       </c>
       <c r="E42">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F42" t="s">
         <v>10</v>
       </c>
       <c r="H42" t="str">
         <f>VLOOKUP(F42,Sheet3!$A$1:$B$5,2)</f>
-        <v>D005</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
@@ -7192,14 +7160,14 @@
       </c>
       <c r="E43">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F43" t="s">
         <v>0</v>
       </c>
       <c r="H43" t="str">
         <f>VLOOKUP(F43,Sheet3!$A$1:$B$5,2)</f>
-        <v>D002</v>
+        <v>DO02</v>
       </c>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
@@ -7224,7 +7192,7 @@
       </c>
       <c r="H44" t="str">
         <f>VLOOKUP(F44,Sheet3!$A$1:$B$5,2)</f>
-        <v>D002</v>
+        <v>DO02</v>
       </c>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
@@ -7242,14 +7210,14 @@
       </c>
       <c r="E45">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F45" t="s">
         <v>10</v>
       </c>
       <c r="H45" t="str">
         <f>VLOOKUP(F45,Sheet3!$A$1:$B$5,2)</f>
-        <v>D005</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
@@ -7274,7 +7242,7 @@
       </c>
       <c r="H46" t="str">
         <f>VLOOKUP(F46,Sheet3!$A$1:$B$5,2)</f>
-        <v>D003</v>
+        <v>DO03</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
@@ -7292,14 +7260,14 @@
       </c>
       <c r="E47">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F47" t="s">
         <v>5</v>
       </c>
-      <c r="H47" t="str">
+      <c r="H47" t="e">
         <f>VLOOKUP(F47,Sheet3!$A$1:$B$5,2)</f>
-        <v>D001</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
@@ -7317,14 +7285,14 @@
       </c>
       <c r="E48">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
       </c>
       <c r="H48" t="str">
         <f>VLOOKUP(F48,Sheet3!$A$1:$B$5,2)</f>
-        <v>D003</v>
+        <v>DO03</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
@@ -7347,9 +7315,9 @@
       <c r="F49" t="s">
         <v>5</v>
       </c>
-      <c r="H49" t="str">
+      <c r="H49" t="e">
         <f>VLOOKUP(F49,Sheet3!$A$1:$B$5,2)</f>
-        <v>D001</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
@@ -7367,14 +7335,14 @@
       </c>
       <c r="E50">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F50" t="s">
         <v>0</v>
       </c>
       <c r="H50" t="str">
         <f>VLOOKUP(F50,Sheet3!$A$1:$B$5,2)</f>
-        <v>D002</v>
+        <v>DO02</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
@@ -7392,14 +7360,14 @@
       </c>
       <c r="E51">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F51" t="s">
         <v>10</v>
       </c>
       <c r="H51" t="str">
         <f>VLOOKUP(F51,Sheet3!$A$1:$B$5,2)</f>
-        <v>D005</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.3">
@@ -7417,14 +7385,14 @@
       </c>
       <c r="E52">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F52" t="s">
         <v>48</v>
       </c>
       <c r="H52" t="str">
         <f>VLOOKUP(F52,Sheet3!$A$1:$B$5,2)</f>
-        <v>D004</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
@@ -7442,14 +7410,14 @@
       </c>
       <c r="E53">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F53" t="s">
         <v>10</v>
       </c>
       <c r="H53" t="str">
         <f>VLOOKUP(F53,Sheet3!$A$1:$B$5,2)</f>
-        <v>D005</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="54" spans="1:8" x14ac:dyDescent="0.3">
@@ -7467,14 +7435,14 @@
       </c>
       <c r="E54">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
       </c>
       <c r="H54" t="str">
         <f>VLOOKUP(F54,Sheet3!$A$1:$B$5,2)</f>
-        <v>D003</v>
+        <v>DO03</v>
       </c>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
@@ -7492,14 +7460,14 @@
       </c>
       <c r="E55">
         <f t="shared" ca="1" si="0"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F55" t="s">
         <v>10</v>
       </c>
       <c r="H55" t="str">
         <f>VLOOKUP(F55,Sheet3!$A$1:$B$5,2)</f>
-        <v>D005</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
@@ -7517,14 +7485,14 @@
       </c>
       <c r="E56">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F56" t="s">
         <v>10</v>
       </c>
       <c r="H56" t="str">
         <f>VLOOKUP(F56,Sheet3!$A$1:$B$5,2)</f>
-        <v>D005</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
@@ -7542,14 +7510,14 @@
       </c>
       <c r="E57">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
         <v>48</v>
       </c>
       <c r="H57" t="str">
         <f>VLOOKUP(F57,Sheet3!$A$1:$B$5,2)</f>
-        <v>D004</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
@@ -7567,14 +7535,14 @@
       </c>
       <c r="E58">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F58" t="s">
         <v>48</v>
       </c>
       <c r="H58" t="str">
         <f>VLOOKUP(F58,Sheet3!$A$1:$B$5,2)</f>
-        <v>D004</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="59" spans="1:8" x14ac:dyDescent="0.3">
@@ -7592,14 +7560,14 @@
       </c>
       <c r="E59">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
       </c>
       <c r="H59" t="str">
         <f>VLOOKUP(F59,Sheet3!$A$1:$B$5,2)</f>
-        <v>D003</v>
+        <v>DO03</v>
       </c>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
@@ -7617,14 +7585,14 @@
       </c>
       <c r="E60">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F60" t="s">
         <v>5</v>
       </c>
-      <c r="H60" t="str">
+      <c r="H60" t="e">
         <f>VLOOKUP(F60,Sheet3!$A$1:$B$5,2)</f>
-        <v>D001</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
@@ -7642,14 +7610,14 @@
       </c>
       <c r="E61">
         <f t="shared" ca="1" si="0"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F61" t="s">
         <v>0</v>
       </c>
       <c r="H61" t="str">
         <f>VLOOKUP(F61,Sheet3!$A$1:$B$5,2)</f>
-        <v>D002</v>
+        <v>DO02</v>
       </c>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
@@ -7667,14 +7635,14 @@
       </c>
       <c r="E62">
         <f t="shared" ca="1" si="0"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
       </c>
       <c r="H62" t="str">
         <f>VLOOKUP(F62,Sheet3!$A$1:$B$5,2)</f>
-        <v>D003</v>
+        <v>DO03</v>
       </c>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
@@ -7697,9 +7665,9 @@
       <c r="F63" t="s">
         <v>5</v>
       </c>
-      <c r="H63" t="str">
+      <c r="H63" t="e">
         <f>VLOOKUP(F63,Sheet3!$A$1:$B$5,2)</f>
-        <v>D001</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
@@ -7717,14 +7685,14 @@
       </c>
       <c r="E64">
         <f t="shared" ca="1" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F64" t="s">
         <v>0</v>
       </c>
       <c r="H64" t="str">
         <f>VLOOKUP(F64,Sheet3!$A$1:$B$5,2)</f>
-        <v>D002</v>
+        <v>DO02</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
@@ -7749,7 +7717,7 @@
       </c>
       <c r="H65" t="str">
         <f>VLOOKUP(F65,Sheet3!$A$1:$B$5,2)</f>
-        <v>D004</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
@@ -7772,9 +7740,9 @@
       <c r="F66" t="s">
         <v>5</v>
       </c>
-      <c r="H66" t="str">
+      <c r="H66" t="e">
         <f>VLOOKUP(F66,Sheet3!$A$1:$B$5,2)</f>
-        <v>D001</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
@@ -7792,14 +7760,14 @@
       </c>
       <c r="E67">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F67" t="s">
         <v>48</v>
       </c>
       <c r="H67" t="str">
         <f>VLOOKUP(F67,Sheet3!$A$1:$B$5,2)</f>
-        <v>D004</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.3">
@@ -7817,14 +7785,14 @@
       </c>
       <c r="E68">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F68" t="s">
         <v>10</v>
       </c>
       <c r="H68" t="str">
         <f>VLOOKUP(F68,Sheet3!$A$1:$B$5,2)</f>
-        <v>D005</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
@@ -7842,14 +7810,14 @@
       </c>
       <c r="E69">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F69" t="s">
         <v>0</v>
       </c>
       <c r="H69" t="str">
         <f>VLOOKUP(F69,Sheet3!$A$1:$B$5,2)</f>
-        <v>D002</v>
+        <v>DO02</v>
       </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.3">
@@ -7867,14 +7835,14 @@
       </c>
       <c r="E70">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F70" t="s">
         <v>10</v>
       </c>
       <c r="H70" t="str">
         <f>VLOOKUP(F70,Sheet3!$A$1:$B$5,2)</f>
-        <v>D005</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
@@ -7899,7 +7867,7 @@
       </c>
       <c r="H71" t="str">
         <f>VLOOKUP(F71,Sheet3!$A$1:$B$5,2)</f>
-        <v>D004</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
@@ -7917,14 +7885,14 @@
       </c>
       <c r="E72">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F72" t="s">
         <v>39</v>
       </c>
       <c r="H72" t="str">
         <f>VLOOKUP(F72,Sheet3!$A$1:$B$5,2)</f>
-        <v>D003</v>
+        <v>DO03</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
@@ -7942,14 +7910,14 @@
       </c>
       <c r="E73">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F73" t="s">
         <v>48</v>
       </c>
       <c r="H73" t="str">
         <f>VLOOKUP(F73,Sheet3!$A$1:$B$5,2)</f>
-        <v>D004</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
@@ -7967,14 +7935,14 @@
       </c>
       <c r="E74">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F74" t="s">
         <v>0</v>
       </c>
       <c r="H74" t="str">
         <f>VLOOKUP(F74,Sheet3!$A$1:$B$5,2)</f>
-        <v>D002</v>
+        <v>DO02</v>
       </c>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
@@ -7992,14 +7960,14 @@
       </c>
       <c r="E75">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F75" t="s">
         <v>5</v>
       </c>
-      <c r="H75" t="str">
+      <c r="H75" t="e">
         <f>VLOOKUP(F75,Sheet3!$A$1:$B$5,2)</f>
-        <v>D001</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
@@ -8017,14 +7985,14 @@
       </c>
       <c r="E76">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F76" t="s">
         <v>39</v>
       </c>
       <c r="H76" t="str">
         <f>VLOOKUP(F76,Sheet3!$A$1:$B$5,2)</f>
-        <v>D003</v>
+        <v>DO03</v>
       </c>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
@@ -8049,7 +8017,7 @@
       </c>
       <c r="H77" t="str">
         <f>VLOOKUP(F77,Sheet3!$A$1:$B$5,2)</f>
-        <v>D003</v>
+        <v>DO03</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
@@ -8067,14 +8035,14 @@
       </c>
       <c r="E78">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F78" t="s">
         <v>39</v>
       </c>
       <c r="H78" t="str">
         <f>VLOOKUP(F78,Sheet3!$A$1:$B$5,2)</f>
-        <v>D003</v>
+        <v>DO03</v>
       </c>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
@@ -8099,7 +8067,7 @@
       </c>
       <c r="H79" t="str">
         <f>VLOOKUP(F79,Sheet3!$A$1:$B$5,2)</f>
-        <v>D004</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
@@ -8117,14 +8085,14 @@
       </c>
       <c r="E80">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F80" t="s">
         <v>48</v>
       </c>
       <c r="H80" t="str">
         <f>VLOOKUP(F80,Sheet3!$A$1:$B$5,2)</f>
-        <v>D004</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
@@ -8142,14 +8110,14 @@
       </c>
       <c r="E81">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F81" t="s">
         <v>39</v>
       </c>
       <c r="H81" t="str">
         <f>VLOOKUP(F81,Sheet3!$A$1:$B$5,2)</f>
-        <v>D003</v>
+        <v>DO03</v>
       </c>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
@@ -8167,14 +8135,14 @@
       </c>
       <c r="E82">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F82" t="s">
         <v>39</v>
       </c>
       <c r="H82" t="str">
         <f>VLOOKUP(F82,Sheet3!$A$1:$B$5,2)</f>
-        <v>D003</v>
+        <v>DO03</v>
       </c>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
@@ -8192,14 +8160,14 @@
       </c>
       <c r="E83">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F83" t="s">
         <v>39</v>
       </c>
       <c r="H83" t="str">
         <f>VLOOKUP(F83,Sheet3!$A$1:$B$5,2)</f>
-        <v>D003</v>
+        <v>DO03</v>
       </c>
     </row>
     <row r="84" spans="1:8" x14ac:dyDescent="0.3">
@@ -8217,14 +8185,14 @@
       </c>
       <c r="E84">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F84" t="s">
         <v>0</v>
       </c>
       <c r="H84" t="str">
         <f>VLOOKUP(F84,Sheet3!$A$1:$B$5,2)</f>
-        <v>D002</v>
+        <v>DO02</v>
       </c>
     </row>
     <row r="85" spans="1:8" x14ac:dyDescent="0.3">
@@ -8242,14 +8210,14 @@
       </c>
       <c r="E85">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F85" t="s">
         <v>48</v>
       </c>
       <c r="H85" t="str">
         <f>VLOOKUP(F85,Sheet3!$A$1:$B$5,2)</f>
-        <v>D004</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="86" spans="1:8" x14ac:dyDescent="0.3">
@@ -8267,14 +8235,14 @@
       </c>
       <c r="E86">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F86" t="s">
         <v>39</v>
       </c>
       <c r="H86" t="str">
         <f>VLOOKUP(F86,Sheet3!$A$1:$B$5,2)</f>
-        <v>D003</v>
+        <v>DO03</v>
       </c>
     </row>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -8299,7 +8267,7 @@
       </c>
       <c r="H87" t="str">
         <f>VLOOKUP(F87,Sheet3!$A$1:$B$5,2)</f>
-        <v>D002</v>
+        <v>DO02</v>
       </c>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
@@ -8317,14 +8285,14 @@
       </c>
       <c r="E88">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F88" t="s">
         <v>0</v>
       </c>
       <c r="H88" t="str">
         <f>VLOOKUP(F88,Sheet3!$A$1:$B$5,2)</f>
-        <v>D002</v>
+        <v>DO02</v>
       </c>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
@@ -8342,14 +8310,14 @@
       </c>
       <c r="E89">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F89" t="s">
         <v>48</v>
       </c>
       <c r="H89" t="str">
         <f>VLOOKUP(F89,Sheet3!$A$1:$B$5,2)</f>
-        <v>D004</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
@@ -8367,14 +8335,14 @@
       </c>
       <c r="E90">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F90" t="s">
         <v>48</v>
       </c>
       <c r="H90" t="str">
         <f>VLOOKUP(F90,Sheet3!$A$1:$B$5,2)</f>
-        <v>D004</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
@@ -8392,14 +8360,14 @@
       </c>
       <c r="E91">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F91" t="s">
         <v>10</v>
       </c>
       <c r="H91" t="str">
         <f>VLOOKUP(F91,Sheet3!$A$1:$B$5,2)</f>
-        <v>D005</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
@@ -8417,14 +8385,14 @@
       </c>
       <c r="E92">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F92" t="s">
         <v>39</v>
       </c>
       <c r="H92" t="str">
         <f>VLOOKUP(F92,Sheet3!$A$1:$B$5,2)</f>
-        <v>D003</v>
+        <v>DO03</v>
       </c>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
@@ -8442,14 +8410,14 @@
       </c>
       <c r="E93">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F93" t="s">
         <v>10</v>
       </c>
       <c r="H93" t="str">
         <f>VLOOKUP(F93,Sheet3!$A$1:$B$5,2)</f>
-        <v>D005</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="94" spans="1:8" x14ac:dyDescent="0.3">
@@ -8467,14 +8435,14 @@
       </c>
       <c r="E94">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F94" t="s">
         <v>10</v>
       </c>
       <c r="H94" t="str">
         <f>VLOOKUP(F94,Sheet3!$A$1:$B$5,2)</f>
-        <v>D005</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.3">
@@ -8492,14 +8460,14 @@
       </c>
       <c r="E95">
         <f t="shared" ca="1" si="1"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F95" t="s">
         <v>10</v>
       </c>
       <c r="H95" t="str">
         <f>VLOOKUP(F95,Sheet3!$A$1:$B$5,2)</f>
-        <v>D005</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="96" spans="1:8" x14ac:dyDescent="0.3">
@@ -8517,14 +8485,14 @@
       </c>
       <c r="E96">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F96" t="s">
         <v>0</v>
       </c>
       <c r="H96" t="str">
         <f>VLOOKUP(F96,Sheet3!$A$1:$B$5,2)</f>
-        <v>D002</v>
+        <v>DO02</v>
       </c>
     </row>
     <row r="97" spans="1:8" x14ac:dyDescent="0.3">
@@ -8542,14 +8510,14 @@
       </c>
       <c r="E97">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F97" t="s">
         <v>0</v>
       </c>
       <c r="H97" t="str">
         <f>VLOOKUP(F97,Sheet3!$A$1:$B$5,2)</f>
-        <v>D002</v>
+        <v>DO02</v>
       </c>
     </row>
     <row r="98" spans="1:8" x14ac:dyDescent="0.3">
@@ -8567,14 +8535,14 @@
       </c>
       <c r="E98">
         <f t="shared" ca="1" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F98" t="s">
         <v>10</v>
       </c>
       <c r="H98" t="str">
         <f>VLOOKUP(F98,Sheet3!$A$1:$B$5,2)</f>
-        <v>D005</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="99" spans="1:8" x14ac:dyDescent="0.3">
@@ -8592,14 +8560,14 @@
       </c>
       <c r="E99">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F99" t="s">
         <v>10</v>
       </c>
       <c r="H99" t="str">
         <f>VLOOKUP(F99,Sheet3!$A$1:$B$5,2)</f>
-        <v>D005</v>
+        <v>DO04</v>
       </c>
     </row>
     <row r="100" spans="1:8" x14ac:dyDescent="0.3">
@@ -8617,14 +8585,14 @@
       </c>
       <c r="E100">
         <f t="shared" ca="1" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F100" t="s">
         <v>5</v>
       </c>
-      <c r="H100" t="str">
+      <c r="H100" t="e">
         <f>VLOOKUP(F100,Sheet3!$A$1:$B$5,2)</f>
-        <v>D001</v>
+        <v>#N/A</v>
       </c>
     </row>
     <row r="101" spans="1:8" x14ac:dyDescent="0.3">
@@ -8642,14 +8610,14 @@
       </c>
       <c r="E101">
         <f t="shared" ca="1" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F101" t="s">
         <v>0</v>
       </c>
       <c r="H101" t="str">
         <f>VLOOKUP(F101,Sheet3!$A$1:$B$5,2)</f>
-        <v>D002</v>
+        <v>DO02</v>
       </c>
     </row>
   </sheetData>
@@ -8661,52 +8629,78 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>416</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>413</v>
+      </c>
+      <c r="C1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="4" t="s">
+        <v>424</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>417</v>
+      </c>
+      <c r="C2" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>418</v>
+      </c>
+      <c r="C3" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="B1" t="s">
-        <v>416</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="B4" s="3" t="s">
+        <v>419</v>
+      </c>
+      <c r="C4" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>420</v>
+      </c>
+      <c r="C5" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="3" t="s">
+        <v>414</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>421</v>
       </c>
-      <c r="B2" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>422</v>
-      </c>
-      <c r="B3" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>423</v>
-      </c>
-      <c r="B4" t="s">
-        <v>419</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>424</v>
-      </c>
-      <c r="B5" t="s">
-        <v>420</v>
+      <c r="C6" t="s">
+        <v>433</v>
       </c>
     </row>
   </sheetData>
@@ -8719,8 +8713,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M26" sqref="M26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -8731,43 +8725,43 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>425</v>
+        <v>416</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>413</v>
       </c>
       <c r="C1" t="s">
-        <v>435</v>
+        <v>426</v>
       </c>
       <c r="D1" t="s">
-        <v>432</v>
+        <v>423</v>
       </c>
       <c r="E1" t="s">
-        <v>436</v>
+        <v>427</v>
       </c>
       <c r="F1" t="s">
-        <v>437</v>
+        <v>428</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
-        <v>433</v>
+        <v>424</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>426</v>
+        <v>417</v>
       </c>
       <c r="C2" t="s">
-        <v>438</v>
+        <v>429</v>
       </c>
       <c r="D2" t="s">
-        <v>443</v>
+        <v>434</v>
       </c>
       <c r="E2" t="str">
         <f ca="1">"062"&amp; TEXT(RANDBETWEEN(10000,99999),"-000-0000")</f>
-        <v>062-007-6348</v>
+        <v>062-005-9473</v>
       </c>
       <c r="F2" t="s">
-        <v>448</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -8775,41 +8769,41 @@
         <v>0</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>427</v>
+        <v>418</v>
       </c>
       <c r="C3" t="s">
-        <v>439</v>
+        <v>430</v>
       </c>
       <c r="D3" t="s">
-        <v>444</v>
+        <v>435</v>
       </c>
       <c r="E3" t="str">
         <f t="shared" ref="E3:E6" ca="1" si="0">"062"&amp; TEXT(RANDBETWEEN(10000,99999),"-000-0000")</f>
-        <v>062-008-6911</v>
+        <v>062-007-6050</v>
       </c>
       <c r="F3" t="s">
-        <v>449</v>
+        <v>440</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="3" t="s">
-        <v>434</v>
+        <v>425</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>428</v>
+        <v>419</v>
       </c>
       <c r="C4" t="s">
-        <v>440</v>
+        <v>431</v>
       </c>
       <c r="D4" t="s">
-        <v>445</v>
+        <v>436</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-007-4730</v>
+        <v>062-009-0863</v>
       </c>
       <c r="F4" t="s">
-        <v>450</v>
+        <v>441</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
@@ -8817,20 +8811,20 @@
         <v>48</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>429</v>
+        <v>420</v>
       </c>
       <c r="C5" t="s">
-        <v>441</v>
+        <v>432</v>
       </c>
       <c r="D5" t="s">
-        <v>446</v>
+        <v>437</v>
       </c>
       <c r="E5" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-003-0182</v>
+        <v>062-001-8923</v>
       </c>
       <c r="F5" t="s">
-        <v>451</v>
+        <v>442</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
@@ -8838,20 +8832,20 @@
         <v>414</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>430</v>
+        <v>421</v>
       </c>
       <c r="C6" t="s">
-        <v>442</v>
+        <v>433</v>
       </c>
       <c r="D6" t="s">
-        <v>447</v>
+        <v>438</v>
       </c>
       <c r="E6" t="str">
         <f t="shared" ca="1" si="0"/>
-        <v>062-004-0117</v>
+        <v>062-009-0593</v>
       </c>
       <c r="F6" t="s">
-        <v>452</v>
+        <v>443</v>
       </c>
     </row>
   </sheetData>
